--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8ACA28-46E3-4B1F-8ED9-B383D81E6E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D216B-852E-48F9-9F22-94FA88E9BE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
@@ -1169,11 +1169,140 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1182,9 +1311,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,170 +1398,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1438,48 +1412,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,81 +1483,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1609,8 +1552,65 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7262,6 +7262,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7316,6 +7317,8 @@
         <c:crossAx val="360693200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -12801,6 +12804,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12855,6 +12859,8 @@
         <c:crossAx val="360693200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13637,7 +13643,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13658,24 +13664,24 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -13683,131 +13689,131 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="125"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="75">
+      <c r="B5" s="132"/>
+      <c r="C5" s="117">
         <v>2</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
     </row>
     <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
     </row>
     <row r="7" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
     </row>
     <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H8" s="25"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
     </row>
     <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -13825,9 +13831,9 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -13864,113 +13870,113 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
     </row>
     <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65" t="s">
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67">
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108">
         <v>1</v>
       </c>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -14016,10 +14022,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="96" t="s">
+      <c r="H21" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="96"/>
+      <c r="I21" s="109"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -14045,256 +14051,256 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="98"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="97" t="s">
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98" t="s">
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101" t="s">
+      <c r="H23" s="95"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98" t="s">
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="98"/>
-      <c r="O23" s="100"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="97"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="97" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98" t="s">
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="98"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101" t="s">
+      <c r="H24" s="95"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98" t="s">
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="98"/>
-      <c r="O24" s="100"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="97"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="102">
+      <c r="A25" s="99">
         <v>365</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="102" t="s">
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="107" t="s">
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="106"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="103"/>
     </row>
     <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108">
+      <c r="A26" s="84">
         <v>405</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="108" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="113" t="s">
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="112"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="92"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108">
+      <c r="A27" s="84">
         <v>436</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="114" t="s">
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115" t="s">
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="113" t="s">
+      <c r="H27" s="88"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="112"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="92"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108">
+      <c r="A28" s="84">
         <v>440</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="108" t="s">
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="117" t="s">
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115" t="s">
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="115"/>
-      <c r="O28" s="116"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="89"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108">
+      <c r="A29" s="84">
         <v>488</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="114" t="s">
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115" t="s">
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="113" t="s">
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="112"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="92"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="108">
+      <c r="A30" s="84">
         <v>530</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="114" t="s">
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115" t="s">
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="113" t="s">
+      <c r="H30" s="88"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="112"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="92"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108">
+      <c r="A31" s="84">
         <v>570</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="114" t="s">
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115" t="s">
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="113" t="s">
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="112"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="92"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="118">
+      <c r="A32" s="72">
         <v>670</v>
       </c>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121" t="s">
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122" t="s">
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124" t="s">
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="126"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="80"/>
     </row>
     <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -14414,55 +14420,55 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="130"/>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="130"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -14516,156 +14522,239 @@
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="130"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
     </row>
     <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="130"/>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
     </row>
     <row r="47" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="130"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
     </row>
     <row r="48" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="130"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="135">
+      <c r="B50" s="69">
         <f ca="1">TODAY()</f>
-        <v>44880</v>
-      </c>
-      <c r="C50" s="135"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="135"/>
+        <v>44881</v>
+      </c>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="136" t="s">
+      <c r="H50" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="137" t="s">
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="M50" s="137"/>
-      <c r="N50" s="137"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
       <c r="O50" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="131" t="s">
+      <c r="A52" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="132"/>
-      <c r="C52" s="131" t="s">
+      <c r="B52" s="66"/>
+      <c r="C52" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="132"/>
+      <c r="D52" s="66"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="131" t="s">
+      <c r="J52" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="K52" s="132"/>
-      <c r="L52" s="131" t="s">
+      <c r="K52" s="66"/>
+      <c r="L52" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="M52" s="132"/>
-      <c r="N52" s="131" t="s">
+      <c r="M52" s="66"/>
+      <c r="N52" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="O52" s="132"/>
+      <c r="O52" s="66"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="131" t="s">
+      <c r="A53" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="132"/>
-      <c r="C53" s="133">
+      <c r="B53" s="66"/>
+      <c r="C53" s="67">
         <v>37811</v>
       </c>
-      <c r="D53" s="134"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="131" t="s">
+      <c r="J53" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="132"/>
-      <c r="L53" s="133" t="s">
+      <c r="K53" s="66"/>
+      <c r="L53" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="M53" s="134"/>
-      <c r="N53" s="133">
+      <c r="M53" s="68"/>
+      <c r="N53" s="67">
         <v>39875</v>
       </c>
-      <c r="O53" s="134"/>
+      <c r="O53" s="68"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="Q4:S11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A46:O46"/>
@@ -14684,89 +14773,6 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="Q4:S11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
     <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
@@ -14847,24 +14853,24 @@
       <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -14872,64 +14878,64 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="125"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="75">
+      <c r="B5" s="132"/>
+      <c r="C5" s="117">
         <v>2</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="125"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -14991,63 +14997,63 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
+      <c r="A13" s="153"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
@@ -15084,31 +15090,31 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
+      <c r="A16" s="153"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
     </row>
     <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="177"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -15216,38 +15222,38 @@
       <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
@@ -15262,26 +15268,26 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="164"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -15320,171 +15326,171 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="97" t="s">
+      <c r="B31" s="95"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="97" t="s">
+      <c r="E31" s="95"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="98"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="101" t="s">
+      <c r="H31" s="95"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="98"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="165" t="s">
+      <c r="K31" s="95"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="N31" s="166"/>
-      <c r="O31" s="167"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="157"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="97" t="s">
+      <c r="B32" s="95"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="171" t="s">
+      <c r="E32" s="95"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="172"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174" t="s">
+      <c r="H32" s="162"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="172"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="170"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="160"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="159" t="str">
+      <c r="A33" s="165" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160" t="str">
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="180"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="147"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="151" t="str">
+      <c r="A34" s="148" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152" t="str">
+      <c r="B34" s="142"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="150"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="141"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="151" t="str">
+      <c r="A35" s="148" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152" t="str">
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="149"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="150"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="140"/>
+      <c r="O35" s="141"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="151" t="str">
+      <c r="A36" s="148" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="152"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152" t="str">
+      <c r="B36" s="142"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="150"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="140"/>
+      <c r="N36" s="140"/>
+      <c r="O36" s="141"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="156" t="str">
+      <c r="A37" s="170" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139" t="str">
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="154"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="168"/>
     </row>
     <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
@@ -15499,9 +15505,9 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="178"/>
-      <c r="O38" s="178"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="144"/>
     </row>
     <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -15516,145 +15522,145 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="178"/>
-      <c r="N39" s="178"/>
-      <c r="O39" s="178"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
     </row>
     <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="138"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
-      <c r="O40" s="138"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="139"/>
+      <c r="O40" s="139"/>
     </row>
     <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="138"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
-      <c r="K41" s="138"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="138"/>
-      <c r="O41" s="138"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="139"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="139"/>
+      <c r="O41" s="139"/>
     </row>
     <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="138"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="138"/>
+      <c r="A42" s="139"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="139"/>
     </row>
     <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="138"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
-      <c r="O43" s="138"/>
+      <c r="A43" s="139"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="139"/>
     </row>
     <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="138"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
-      <c r="O44" s="138"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="139"/>
+      <c r="O44" s="139"/>
     </row>
     <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="138"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
+      <c r="A45" s="139"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="139"/>
+      <c r="O45" s="139"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="138"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="138"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="139"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="140"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="140"/>
+      <c r="A47" s="180"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="180"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="180"/>
+      <c r="H47" s="180"/>
+      <c r="I47" s="180"/>
+      <c r="J47" s="180"/>
+      <c r="K47" s="180"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="180"/>
+      <c r="N47" s="180"/>
+      <c r="O47" s="180"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
@@ -15681,85 +15687,161 @@
       <c r="A52" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="135">
+      <c r="B52" s="69">
         <f ca="1">TODAY()</f>
-        <v>44880</v>
-      </c>
-      <c r="C52" s="135"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="135"/>
+        <v>44881</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="136" t="s">
+      <c r="H52" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="136"/>
-      <c r="J52" s="136"/>
-      <c r="K52" s="136"/>
-      <c r="L52" s="137" t="s">
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="M52" s="137"/>
-      <c r="N52" s="137"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
       <c r="O52" s="36"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="141"/>
-      <c r="C54" s="141" t="s">
+      <c r="B54" s="172"/>
+      <c r="C54" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="141"/>
-      <c r="E54" s="143"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="141" t="s">
+      <c r="D54" s="172"/>
+      <c r="E54" s="174"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="141"/>
-      <c r="L54" s="141" t="s">
+      <c r="K54" s="172"/>
+      <c r="L54" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="M54" s="141"/>
-      <c r="N54" s="141" t="s">
+      <c r="M54" s="172"/>
+      <c r="N54" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="O54" s="141"/>
+      <c r="O54" s="172"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="141" t="s">
+      <c r="A55" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="141"/>
-      <c r="C55" s="142">
+      <c r="B55" s="172"/>
+      <c r="C55" s="173">
         <v>37811</v>
       </c>
-      <c r="D55" s="141"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="148"/>
-      <c r="J55" s="141" t="s">
+      <c r="D55" s="172"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="178"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="179"/>
+      <c r="J55" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="K55" s="141"/>
-      <c r="L55" s="142">
+      <c r="K55" s="172"/>
+      <c r="L55" s="173">
         <v>39875</v>
       </c>
-      <c r="M55" s="141"/>
-      <c r="N55" s="142">
+      <c r="M55" s="172"/>
+      <c r="N55" s="173">
         <v>39875</v>
       </c>
-      <c r="O55" s="141"/>
+      <c r="O55" s="172"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E54:I55"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M31:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A40:O40"/>
@@ -15776,82 +15858,6 @@
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M31:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
@@ -15896,102 +15902,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
       <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
       <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="75">
+      <c r="B4" s="132"/>
+      <c r="C4" s="117">
         <v>2</v>
       </c>
-      <c r="D4" s="206" t="s">
+      <c r="D4" s="187" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="202"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
       <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
       <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16019,23 +16025,23 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192" t="s">
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="192"/>
+      <c r="E9" s="188"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -16047,17 +16053,17 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="207">
+      <c r="B10" s="188"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -16083,22 +16089,22 @@
       <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="192"/>
+      <c r="B12" s="188"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="188"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
@@ -16117,26 +16123,26 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="194" t="s">
+      <c r="B14" s="191"/>
+      <c r="C14" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="99" t="s">
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="99" t="s">
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="101"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="57" t="s">
         <v>51</v>
       </c>
@@ -16154,20 +16160,20 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="188">
+      <c r="A15" s="193">
         <v>1</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="190"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -16175,20 +16181,20 @@
       <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="188">
+      <c r="A16" s="193">
         <v>2</v>
       </c>
-      <c r="B16" s="189"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="190"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="198"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="198"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -16196,20 +16202,20 @@
       <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="188">
+      <c r="A17" s="193">
         <v>3</v>
       </c>
-      <c r="B17" s="189"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="190"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -16217,20 +16223,20 @@
       <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="188">
+      <c r="A18" s="193">
         <v>4</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="191"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="190"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -16238,20 +16244,20 @@
       <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="188">
+      <c r="A19" s="193">
         <v>5</v>
       </c>
-      <c r="B19" s="189"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="191"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="190"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -16259,20 +16265,20 @@
       <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="188">
+      <c r="A20" s="193">
         <v>6</v>
       </c>
-      <c r="B20" s="189"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="191"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="190"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -16280,20 +16286,20 @@
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="188">
+      <c r="A21" s="193">
         <v>7</v>
       </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
+      <c r="H21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -16301,20 +16307,20 @@
       <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="188">
+      <c r="A22" s="193">
         <v>8</v>
       </c>
-      <c r="B22" s="189"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -16322,20 +16328,20 @@
       <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="188">
+      <c r="A23" s="193">
         <v>9</v>
       </c>
-      <c r="B23" s="189"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="190"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -16343,20 +16349,20 @@
       <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="188">
+      <c r="A24" s="193">
         <v>10</v>
       </c>
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="190"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -16364,20 +16370,20 @@
       <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="188">
+      <c r="A25" s="193">
         <v>11</v>
       </c>
-      <c r="B25" s="189"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="191"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="190"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -16385,20 +16391,20 @@
       <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="188">
+      <c r="A26" s="193">
         <v>12</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="190"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="198"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -16406,20 +16412,20 @@
       <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="188">
+      <c r="A27" s="193">
         <v>13</v>
       </c>
-      <c r="B27" s="189"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="190"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="198"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -16427,20 +16433,20 @@
       <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="188">
+      <c r="A28" s="193">
         <v>14</v>
       </c>
-      <c r="B28" s="189"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -16448,20 +16454,20 @@
       <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="188">
+      <c r="A29" s="193">
         <v>15</v>
       </c>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -16469,20 +16475,20 @@
       <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="188">
+      <c r="A30" s="193">
         <v>16</v>
       </c>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="190"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -16490,20 +16496,20 @@
       <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="188">
+      <c r="A31" s="193">
         <v>17</v>
       </c>
-      <c r="B31" s="189"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -16511,20 +16517,20 @@
       <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="188">
+      <c r="A32" s="193">
         <v>18</v>
       </c>
-      <c r="B32" s="189"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="190"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="190"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="190"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -16532,20 +16538,20 @@
       <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="188">
+      <c r="A33" s="193">
         <v>19</v>
       </c>
-      <c r="B33" s="189"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="190"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -16553,20 +16559,20 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="188">
+      <c r="A34" s="193">
         <v>20</v>
       </c>
-      <c r="B34" s="189"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="190"/>
-      <c r="L34" s="190"/>
+      <c r="B34" s="200"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -16574,20 +16580,20 @@
       <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="188">
+      <c r="A35" s="193">
         <v>21</v>
       </c>
-      <c r="B35" s="189"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="190"/>
-      <c r="L35" s="190"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -16595,20 +16601,20 @@
       <c r="Q35" s="60"/>
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="188">
+      <c r="A36" s="193">
         <v>22</v>
       </c>
-      <c r="B36" s="189"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="191"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="198"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -16616,20 +16622,20 @@
       <c r="Q36" s="60"/>
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="188">
+      <c r="A37" s="193">
         <v>23</v>
       </c>
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-      <c r="G37" s="190"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="190"/>
-      <c r="J37" s="191"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="190"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="198"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -16637,20 +16643,20 @@
       <c r="Q37" s="60"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="188">
+      <c r="A38" s="193">
         <v>24</v>
       </c>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="190"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="190"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
@@ -16658,20 +16664,20 @@
       <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="188">
+      <c r="A39" s="193">
         <v>25</v>
       </c>
-      <c r="B39" s="189"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="190"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="198"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="198"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -16679,20 +16685,20 @@
       <c r="Q39" s="60"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="188">
+      <c r="A40" s="193">
         <v>26</v>
       </c>
-      <c r="B40" s="189"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="190"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="190"/>
-      <c r="J40" s="191"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="190"/>
+      <c r="B40" s="200"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="199"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -16700,20 +16706,20 @@
       <c r="Q40" s="60"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="188">
+      <c r="A41" s="193">
         <v>27</v>
       </c>
-      <c r="B41" s="189"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="190"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="199"/>
+      <c r="K41" s="198"/>
+      <c r="L41" s="198"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -16721,20 +16727,20 @@
       <c r="Q41" s="60"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="182">
+      <c r="A42" s="201">
         <v>28</v>
       </c>
-      <c r="B42" s="183"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="184"/>
-      <c r="L42" s="184"/>
+      <c r="B42" s="202"/>
+      <c r="C42" s="203"/>
+      <c r="D42" s="203"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="203"/>
+      <c r="H42" s="203"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="204"/>
+      <c r="K42" s="203"/>
+      <c r="L42" s="203"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -16754,19 +16760,19 @@
       <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="186"/>
-      <c r="B44" s="186"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="186"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="186"/>
-      <c r="G44" s="186"/>
-      <c r="H44" s="186"/>
-      <c r="I44" s="186"/>
-      <c r="J44" s="186"/>
-      <c r="K44" s="186"/>
-      <c r="L44" s="186"/>
-      <c r="M44" s="186"/>
+      <c r="A44" s="205"/>
+      <c r="B44" s="205"/>
+      <c r="C44" s="205"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="205"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="205"/>
+      <c r="J44" s="205"/>
+      <c r="K44" s="205"/>
+      <c r="L44" s="205"/>
+      <c r="M44" s="205"/>
       <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16793,25 +16799,25 @@
       <c r="A55" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="135">
+      <c r="B55" s="69">
         <f ca="1">TODAY()</f>
-        <v>44880</v>
-      </c>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
+        <v>44881</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="136" t="s">
+      <c r="H55" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="187" t="s">
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="L55" s="187"/>
-      <c r="M55" s="187"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="206"/>
       <c r="N55" s="63"/>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16820,83 +16826,167 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="132"/>
-      <c r="C57" s="141" t="s">
+      <c r="B57" s="66"/>
+      <c r="C57" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="141"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="131" t="s">
+      <c r="D57" s="172"/>
+      <c r="E57" s="174"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="175"/>
+      <c r="H57" s="176"/>
+      <c r="I57" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="132"/>
-      <c r="K57" s="141" t="s">
+      <c r="J57" s="66"/>
+      <c r="K57" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="L57" s="141"/>
-      <c r="M57" s="141" t="s">
+      <c r="L57" s="172"/>
+      <c r="M57" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="N57" s="141"/>
+      <c r="N57" s="172"/>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="131" t="s">
+      <c r="A58" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="132"/>
-      <c r="C58" s="142">
+      <c r="B58" s="66"/>
+      <c r="C58" s="173">
         <v>37811</v>
       </c>
-      <c r="D58" s="141"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="148"/>
-      <c r="I58" s="131" t="s">
+      <c r="D58" s="172"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="178"/>
+      <c r="G58" s="178"/>
+      <c r="H58" s="179"/>
+      <c r="I58" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="J58" s="181"/>
-      <c r="K58" s="142">
+      <c r="J58" s="207"/>
+      <c r="K58" s="173">
         <v>39875</v>
       </c>
-      <c r="L58" s="141"/>
-      <c r="M58" s="142">
+      <c r="L58" s="172"/>
+      <c r="M58" s="173">
         <v>39875</v>
       </c>
-      <c r="N58" s="141"/>
+      <c r="N58" s="172"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="146">
-    <mergeCell ref="K1:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:J5"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:J18"/>
@@ -16913,113 +17003,29 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:J5"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0" top="0.51181102362204722" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17032,8 +17038,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17044,10 +17050,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
+      <c r="A1" s="117"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
+      <c r="A2" s="118"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D216B-852E-48F9-9F22-94FA88E9BE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F87A42-9F34-4923-A250-E52E8E1BC8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>Dokument Nr.</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>Life Tech Part No.</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyProtection="1">
@@ -1168,6 +1171,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1600,9 +1606,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1612,12 +1615,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{64167CAC-BD20-4D35-880E-5FE31ABC39EC}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12915,204 +12934,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF96B100-AB2F-4E5A-A88D-F22B72C7CFB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6301740" y="5707380"/>
-          <a:ext cx="594360" cy="167640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08AF4D9-3F8C-45AB-A2A7-1113B6E46C27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4169036" y="6329082"/>
-          <a:ext cx="278803" cy="177950"/>
-          <a:chOff x="461" y="711"/>
-          <a:chExt cx="16" cy="16"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{309E4D82-8B00-47DD-A6D8-8BD074C3B0E5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="461" y="712"/>
-            <a:ext cx="16" cy="14"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Line 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8112F6D7-E3CA-4795-AD04-EBD1BF292F96}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeShapeType="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm rot="2700000">
-            <a:off x="461" y="719"/>
-            <a:ext cx="16" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Line 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5804612C-A4C5-4DC5-9B5F-E470665A594F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeShapeType="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm rot="-2700000">
-            <a:off x="463" y="718"/>
-            <a:ext cx="10" cy="3"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -13643,7 +13464,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="L15" sqref="L15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13664,24 +13485,24 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="117" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -13689,131 +13510,131 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="126"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="117">
+      <c r="B5" s="133"/>
+      <c r="C5" s="118">
         <v>2</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131"/>
     </row>
     <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
     </row>
     <row r="7" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
     </row>
     <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H8" s="25"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
     </row>
     <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -13831,9 +13652,9 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -13870,113 +13691,113 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="110" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="108" t="s">
+      <c r="I15" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="110" t="s">
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="108" t="s">
+      <c r="I17" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="108" t="s">
+      <c r="I18" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108">
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109">
         <v>1</v>
       </c>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -14022,10 +13843,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="109" t="s">
+      <c r="H21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="109"/>
+      <c r="I21" s="110"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -14051,256 +13872,256 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="94" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="95"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="98" t="s">
+      <c r="H23" s="96"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95" t="s">
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="95"/>
-      <c r="O23" s="97"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="98"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="94" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95" t="s">
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="95"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98" t="s">
+      <c r="H24" s="96"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95" t="s">
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="95"/>
-      <c r="O24" s="97"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="98"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="99">
+      <c r="A25" s="100">
         <v>365</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="99" t="s">
+      <c r="B25" s="101"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104" t="s">
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="103"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="104"/>
     </row>
     <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="85">
         <v>405</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="84" t="s">
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="90" t="s">
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="92"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="93"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="85">
         <v>436</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88" t="s">
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="88"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90" t="s">
+      <c r="H27" s="89"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="93"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="85">
         <v>440</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="84" t="s">
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="93" t="s">
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88" t="s">
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="88"/>
-      <c r="O28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="90"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
+      <c r="A29" s="85">
         <v>488</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87" t="s">
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88" t="s">
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="88"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90" t="s">
+      <c r="H29" s="89"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="92"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="93"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84">
+      <c r="A30" s="85">
         <v>530</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87" t="s">
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88" t="s">
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="90" t="s">
+      <c r="H30" s="89"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="93"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84">
+      <c r="A31" s="85">
         <v>570</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87" t="s">
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88" t="s">
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="88"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="90" t="s">
+      <c r="H31" s="89"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="92"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="93"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72">
+      <c r="A32" s="73">
         <v>670</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75" t="s">
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76" t="s">
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="78" t="s">
+      <c r="H32" s="77"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="80"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="81"/>
     </row>
     <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -14356,7 +14177,9 @@
       <c r="K35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="14"/>
+      <c r="L35" s="64" t="s">
+        <v>87</v>
+      </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
@@ -14420,55 +14243,55 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="64"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -14522,152 +14345,152 @@
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
     </row>
     <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
     </row>
     <row r="47" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
     </row>
     <row r="48" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="69">
+      <c r="B50" s="70">
         <f ca="1">TODAY()</f>
-        <v>44881</v>
-      </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
+        <v>44882</v>
+      </c>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="70" t="s">
+      <c r="H50" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="71" t="s">
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
       <c r="O50" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="65" t="s">
+      <c r="B52" s="67"/>
+      <c r="C52" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="66"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="65" t="s">
+      <c r="J52" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="K52" s="66"/>
-      <c r="L52" s="65" t="s">
+      <c r="K52" s="67"/>
+      <c r="L52" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="M52" s="66"/>
-      <c r="N52" s="65" t="s">
+      <c r="M52" s="67"/>
+      <c r="N52" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="O52" s="66"/>
+      <c r="O52" s="67"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="66"/>
-      <c r="C53" s="67">
+      <c r="B53" s="67"/>
+      <c r="C53" s="68">
         <v>37811</v>
       </c>
-      <c r="D53" s="68"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="65" t="s">
+      <c r="J53" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="66"/>
-      <c r="L53" s="67" t="s">
+      <c r="K53" s="67"/>
+      <c r="L53" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="M53" s="68"/>
-      <c r="N53" s="67">
+      <c r="M53" s="69"/>
+      <c r="N53" s="68">
         <v>39875</v>
       </c>
-      <c r="O53" s="68"/>
+      <c r="O53" s="69"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -14775,37 +14598,37 @@
     <mergeCell ref="A48:O48"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>ISBLANK($D17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G18 D15:G16">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>ISBLANK($D15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:O17">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>ISBLANK($L15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:O27 M29:O32">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>ISBLANK($M25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:I25">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>ISBLANK($G$25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:I28">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>ISBLANK($G$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:I26">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>ISBLANK($G$26)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14853,24 +14676,24 @@
       <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="117" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -14878,64 +14701,64 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="126"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="117">
+      <c r="B5" s="133"/>
+      <c r="C5" s="118">
         <v>2</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -14997,63 +14820,63 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="110" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
     </row>
     <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="108" t="s">
+      <c r="I12" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="153"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
@@ -15090,31 +14913,31 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
     </row>
     <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -15222,38 +15045,38 @@
       <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="154"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="154"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
+      <c r="A26" s="155"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
@@ -15268,26 +15091,26 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="138"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -15326,171 +15149,171 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="94" t="s">
+      <c r="B31" s="96"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="94" t="s">
+      <c r="E31" s="96"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="95"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98" t="s">
+      <c r="H31" s="96"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="95"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="155" t="s">
+      <c r="K31" s="96"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="N31" s="156"/>
-      <c r="O31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="158"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="94" t="s">
+      <c r="B32" s="96"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="161" t="s">
+      <c r="E32" s="96"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="162"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164" t="s">
+      <c r="H32" s="163"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="162"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="160"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="161"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="165" t="str">
+      <c r="A33" s="166" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166" t="str">
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="147"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="148"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="148" t="str">
+      <c r="A34" s="149" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142" t="str">
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="140"/>
-      <c r="O34" s="141"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="142"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="148" t="str">
+      <c r="A35" s="149" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142" t="str">
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="141"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="142"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="148" t="str">
+      <c r="A36" s="149" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142" t="str">
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="140"/>
-      <c r="N36" s="140"/>
-      <c r="O36" s="141"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="142"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="170" t="str">
+      <c r="A37" s="171" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="171"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171" t="str">
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="168"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
+      <c r="M37" s="168"/>
+      <c r="N37" s="168"/>
+      <c r="O37" s="169"/>
     </row>
     <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
@@ -15505,9 +15328,9 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
     </row>
     <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -15522,145 +15345,145 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
+      <c r="M39" s="145"/>
+      <c r="N39" s="145"/>
+      <c r="O39" s="145"/>
     </row>
     <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="139"/>
-      <c r="O40" s="139"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
     </row>
     <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="139"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="139"/>
-      <c r="M41" s="139"/>
-      <c r="N41" s="139"/>
-      <c r="O41" s="139"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="140"/>
     </row>
     <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="139"/>
-      <c r="N42" s="139"/>
-      <c r="O42" s="139"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="140"/>
     </row>
     <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="139"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="139"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="140"/>
+      <c r="N43" s="140"/>
+      <c r="O43" s="140"/>
     </row>
     <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="139"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="139"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="140"/>
+      <c r="N44" s="140"/>
+      <c r="O44" s="140"/>
     </row>
     <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="139"/>
-      <c r="B45" s="139"/>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="139"/>
-      <c r="O45" s="139"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="140"/>
+      <c r="M45" s="140"/>
+      <c r="N45" s="140"/>
+      <c r="O45" s="140"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="139"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="139"/>
-      <c r="O46" s="139"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="140"/>
+      <c r="O46" s="140"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="180"/>
-      <c r="B47" s="180"/>
-      <c r="C47" s="180"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="180"/>
-      <c r="F47" s="180"/>
-      <c r="G47" s="180"/>
-      <c r="H47" s="180"/>
-      <c r="I47" s="180"/>
-      <c r="J47" s="180"/>
-      <c r="K47" s="180"/>
-      <c r="L47" s="180"/>
-      <c r="M47" s="180"/>
-      <c r="N47" s="180"/>
-      <c r="O47" s="180"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="181"/>
+      <c r="I47" s="181"/>
+      <c r="J47" s="181"/>
+      <c r="K47" s="181"/>
+      <c r="L47" s="181"/>
+      <c r="M47" s="181"/>
+      <c r="N47" s="181"/>
+      <c r="O47" s="181"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
@@ -15687,81 +15510,81 @@
       <c r="A52" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="69">
+      <c r="B52" s="70">
         <f ca="1">TODAY()</f>
-        <v>44881</v>
-      </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
+        <v>44882</v>
+      </c>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="70" t="s">
+      <c r="H52" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="71" t="s">
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
       <c r="O52" s="36"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="172" t="s">
+      <c r="A54" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="172"/>
-      <c r="C54" s="172" t="s">
+      <c r="B54" s="173"/>
+      <c r="C54" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="172"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="175"/>
-      <c r="H54" s="175"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="172" t="s">
+      <c r="D54" s="173"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="176"/>
+      <c r="H54" s="176"/>
+      <c r="I54" s="177"/>
+      <c r="J54" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="172"/>
-      <c r="L54" s="172" t="s">
+      <c r="K54" s="173"/>
+      <c r="L54" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="M54" s="172"/>
-      <c r="N54" s="172" t="s">
+      <c r="M54" s="173"/>
+      <c r="N54" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="O54" s="172"/>
+      <c r="O54" s="173"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="172" t="s">
+      <c r="A55" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="172"/>
-      <c r="C55" s="173">
+      <c r="B55" s="173"/>
+      <c r="C55" s="174">
         <v>37811</v>
       </c>
-      <c r="D55" s="172"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="179"/>
-      <c r="J55" s="172" t="s">
+      <c r="D55" s="173"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="179"/>
+      <c r="G55" s="179"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="K55" s="172"/>
-      <c r="L55" s="173">
+      <c r="K55" s="173"/>
+      <c r="L55" s="174">
         <v>39875</v>
       </c>
-      <c r="M55" s="172"/>
-      <c r="N55" s="173">
+      <c r="M55" s="173"/>
+      <c r="N55" s="174">
         <v>39875</v>
       </c>
-      <c r="O55" s="172"/>
+      <c r="O55" s="173"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -15860,10 +15683,10 @@
     <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula xml:space="preserve"> ISBLANK(G33)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notBetween">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
@@ -15882,8 +15705,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15902,102 +15725,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="117" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
       <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
       <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="117">
+      <c r="B4" s="133"/>
+      <c r="C4" s="118">
         <v>2</v>
       </c>
-      <c r="D4" s="187" t="s">
+      <c r="D4" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="183"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
       <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
       <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16025,23 +15848,23 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="188" t="s">
+      <c r="A9" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="188"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188" t="s">
+      <c r="B9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="188"/>
+      <c r="E9" s="189"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -16053,17 +15876,17 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="189">
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -16089,22 +15912,22 @@
       <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="188"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
@@ -16123,26 +15946,26 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191" t="s">
+      <c r="B14" s="192"/>
+      <c r="C14" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="96" t="s">
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="96" t="s">
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="98"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="57" t="s">
         <v>51</v>
       </c>
@@ -16160,20 +15983,20 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="193">
+      <c r="A15" s="194">
         <v>1</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="199"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -16181,20 +16004,20 @@
       <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="193">
+      <c r="A16" s="194">
         <v>2</v>
       </c>
-      <c r="B16" s="200"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="199"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -16202,20 +16025,20 @@
       <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="193">
+      <c r="A17" s="194">
         <v>3</v>
       </c>
-      <c r="B17" s="200"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="199"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -16223,20 +16046,20 @@
       <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="193">
+      <c r="A18" s="194">
         <v>4</v>
       </c>
-      <c r="B18" s="200"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -16244,20 +16067,20 @@
       <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="193">
+      <c r="A19" s="194">
         <v>5</v>
       </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="199"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -16265,20 +16088,20 @@
       <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="193">
+      <c r="A20" s="194">
         <v>6</v>
       </c>
-      <c r="B20" s="200"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="199"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -16286,20 +16109,20 @@
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="193">
+      <c r="A21" s="194">
         <v>7</v>
       </c>
-      <c r="B21" s="200"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="199"/>
+      <c r="L21" s="199"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -16307,20 +16130,20 @@
       <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="193">
+      <c r="A22" s="194">
         <v>8</v>
       </c>
-      <c r="B22" s="200"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="199"/>
+      <c r="L22" s="199"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -16328,20 +16151,20 @@
       <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="193">
+      <c r="A23" s="194">
         <v>9</v>
       </c>
-      <c r="B23" s="200"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="199"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -16349,20 +16172,20 @@
       <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="193">
+      <c r="A24" s="194">
         <v>10</v>
       </c>
-      <c r="B24" s="200"/>
-      <c r="C24" s="198"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="199"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="199"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -16370,20 +16193,20 @@
       <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="193">
+      <c r="A25" s="194">
         <v>11</v>
       </c>
-      <c r="B25" s="200"/>
-      <c r="C25" s="198"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -16391,20 +16214,20 @@
       <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="193">
+      <c r="A26" s="194">
         <v>12</v>
       </c>
-      <c r="B26" s="200"/>
-      <c r="C26" s="198"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -16412,20 +16235,20 @@
       <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="193">
+      <c r="A27" s="194">
         <v>13</v>
       </c>
-      <c r="B27" s="200"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="198"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="199"/>
+      <c r="L27" s="199"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -16433,20 +16256,20 @@
       <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="193">
+      <c r="A28" s="194">
         <v>14</v>
       </c>
-      <c r="B28" s="200"/>
-      <c r="C28" s="198"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
+      <c r="B28" s="201"/>
+      <c r="C28" s="199"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="199"/>
+      <c r="L28" s="199"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -16454,20 +16277,20 @@
       <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="193">
+      <c r="A29" s="194">
         <v>15</v>
       </c>
-      <c r="B29" s="200"/>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="199"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="199"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -16475,20 +16298,20 @@
       <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="193">
+      <c r="A30" s="194">
         <v>16</v>
       </c>
-      <c r="B30" s="200"/>
-      <c r="C30" s="198"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="198"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="199"/>
+      <c r="L30" s="199"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -16496,20 +16319,20 @@
       <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="193">
+      <c r="A31" s="194">
         <v>17</v>
       </c>
-      <c r="B31" s="200"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="199"/>
+      <c r="L31" s="199"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -16517,20 +16340,20 @@
       <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="193">
+      <c r="A32" s="194">
         <v>18</v>
       </c>
-      <c r="B32" s="200"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
+      <c r="B32" s="201"/>
+      <c r="C32" s="199"/>
+      <c r="D32" s="199"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="199"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -16538,20 +16361,20 @@
       <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="193">
+      <c r="A33" s="194">
         <v>19</v>
       </c>
-      <c r="B33" s="200"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="199"/>
+      <c r="L33" s="199"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -16559,20 +16382,20 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="193">
+      <c r="A34" s="194">
         <v>20</v>
       </c>
-      <c r="B34" s="200"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="198"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -16580,20 +16403,20 @@
       <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="193">
+      <c r="A35" s="194">
         <v>21</v>
       </c>
-      <c r="B35" s="200"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="199"/>
+      <c r="L35" s="199"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -16601,20 +16424,20 @@
       <c r="Q35" s="60"/>
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="193">
+      <c r="A36" s="194">
         <v>22</v>
       </c>
-      <c r="B36" s="200"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="198"/>
-      <c r="L36" s="198"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="199"/>
+      <c r="E36" s="199"/>
+      <c r="F36" s="199"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="199"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -16622,20 +16445,20 @@
       <c r="Q36" s="60"/>
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="193">
+      <c r="A37" s="194">
         <v>23</v>
       </c>
-      <c r="B37" s="200"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="199"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="199"/>
+      <c r="L37" s="199"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -16643,20 +16466,20 @@
       <c r="Q37" s="60"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="193">
+      <c r="A38" s="194">
         <v>24</v>
       </c>
-      <c r="B38" s="200"/>
-      <c r="C38" s="198"/>
-      <c r="D38" s="198"/>
-      <c r="E38" s="198"/>
-      <c r="F38" s="198"/>
-      <c r="G38" s="198"/>
-      <c r="H38" s="198"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="198"/>
-      <c r="L38" s="198"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="199"/>
+      <c r="L38" s="199"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
@@ -16664,20 +16487,20 @@
       <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="193">
+      <c r="A39" s="194">
         <v>25</v>
       </c>
-      <c r="B39" s="200"/>
-      <c r="C39" s="198"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="198"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="198"/>
-      <c r="L39" s="198"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="199"/>
+      <c r="E39" s="199"/>
+      <c r="F39" s="199"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="199"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="199"/>
+      <c r="L39" s="199"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -16685,20 +16508,20 @@
       <c r="Q39" s="60"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="193">
+      <c r="A40" s="194">
         <v>26</v>
       </c>
-      <c r="B40" s="200"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
+      <c r="B40" s="201"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="199"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="199"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="199"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="199"/>
+      <c r="L40" s="199"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -16706,20 +16529,20 @@
       <c r="Q40" s="60"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="193">
+      <c r="A41" s="194">
         <v>27</v>
       </c>
-      <c r="B41" s="200"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="199"/>
-      <c r="K41" s="198"/>
-      <c r="L41" s="198"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="199"/>
+      <c r="L41" s="199"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -16727,20 +16550,20 @@
       <c r="Q41" s="60"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="201">
+      <c r="A42" s="202">
         <v>28</v>
       </c>
-      <c r="B42" s="202"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="203"/>
-      <c r="H42" s="203"/>
-      <c r="I42" s="203"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="203"/>
-      <c r="L42" s="203"/>
+      <c r="B42" s="203"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="200"/>
+      <c r="K42" s="204"/>
+      <c r="L42" s="204"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -16799,20 +16622,20 @@
       <c r="A55" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="69">
+      <c r="B55" s="70">
         <f ca="1">TODAY()</f>
-        <v>44881</v>
-      </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
+        <v>44882</v>
+      </c>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="70" t="s">
+      <c r="H55" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="206" t="s">
         <v>44</v>
       </c>
@@ -16826,56 +16649,56 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="172" t="s">
+      <c r="B57" s="67"/>
+      <c r="C57" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="172"/>
-      <c r="E57" s="174"/>
-      <c r="F57" s="175"/>
-      <c r="G57" s="175"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="65" t="s">
+      <c r="D57" s="173"/>
+      <c r="E57" s="175"/>
+      <c r="F57" s="176"/>
+      <c r="G57" s="176"/>
+      <c r="H57" s="177"/>
+      <c r="I57" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="66"/>
-      <c r="K57" s="172" t="s">
+      <c r="J57" s="67"/>
+      <c r="K57" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="L57" s="172"/>
-      <c r="M57" s="172" t="s">
+      <c r="L57" s="173"/>
+      <c r="M57" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="N57" s="172"/>
+      <c r="N57" s="173"/>
     </row>
     <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="173">
+      <c r="B58" s="67"/>
+      <c r="C58" s="174">
         <v>37811</v>
       </c>
-      <c r="D58" s="172"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="179"/>
-      <c r="I58" s="65" t="s">
+      <c r="D58" s="173"/>
+      <c r="E58" s="178"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="179"/>
+      <c r="H58" s="180"/>
+      <c r="I58" s="66" t="s">
         <v>50</v>
       </c>
       <c r="J58" s="207"/>
-      <c r="K58" s="173">
+      <c r="K58" s="174">
         <v>39875</v>
       </c>
-      <c r="L58" s="172"/>
-      <c r="M58" s="173">
+      <c r="L58" s="173"/>
+      <c r="M58" s="174">
         <v>39875</v>
       </c>
-      <c r="N58" s="172"/>
+      <c r="N58" s="173"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -17027,6 +16850,11 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:J5"/>
   </mergeCells>
+  <conditionalFormatting sqref="G15:J42">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Missing">
+      <formula>NOT(ISERROR(SEARCH("Missing",G15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0" top="0.51181102362204722" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -17050,10 +16878,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="117"/>
+      <c r="A1" s="118"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
+      <c r="A2" s="119"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F87A42-9F34-4923-A250-E52E8E1BC8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C9FF18-74B4-4516-8B3A-D35527F66292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>Dokument Nr.</t>
   </si>
@@ -1017,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyProtection="1">
@@ -1175,140 +1175,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1317,11 +1189,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,13 +1274,170 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1418,45 +1445,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1489,53 +1519,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1558,64 +1616,13 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1748,7 +1755,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>R</a:t>
+              <a:t>T</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7415,7 +7422,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-LI"/>
-              <a:t>T</a:t>
+              <a:t>R</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12938,10 +12945,10 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13896</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="969085" cy="519953"/>
+    <xdr:ext cx="824037" cy="407445"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Picture 22">
@@ -12970,8 +12977,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8343900" y="190500"/>
-          <a:ext cx="969085" cy="519953"/>
+          <a:off x="4432599" y="49755"/>
+          <a:ext cx="824037" cy="407445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13011,11 +13018,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="969085" cy="546847"/>
+    <xdr:ext cx="753035" cy="424932"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 4">
@@ -13044,8 +13051,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7025640" y="190500"/>
-          <a:ext cx="969085" cy="546847"/>
+          <a:off x="4509247" y="58720"/>
+          <a:ext cx="753035" cy="424932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13081,6 +13088,80 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>663387</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="753035" cy="424932"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D431E5-287D-44C4-9A33-4E89BAAB6E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8794375" y="62752"/>
+          <a:ext cx="753035" cy="424932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13464,7 +13545,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:O15"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13485,24 +13566,24 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="118" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -13510,131 +13591,131 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="126"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="118">
+      <c r="B5" s="92"/>
+      <c r="C5" s="77">
         <v>2</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
     </row>
     <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="129"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
     </row>
     <row r="7" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
     </row>
     <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H8" s="25"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
     </row>
     <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -13652,9 +13733,9 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -13691,113 +13772,113 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="111" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="109" t="s">
+      <c r="I16" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="111" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="109" t="s">
+      <c r="I18" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109">
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69">
         <v>1</v>
       </c>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -13843,10 +13924,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="110"/>
+      <c r="I21" s="98"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -13872,256 +13953,256 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="95" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96" t="s">
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="96"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="99" t="s">
+      <c r="H23" s="100"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96" t="s">
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="98"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="102"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="95" t="s">
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96" t="s">
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="96"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="99" t="s">
+      <c r="H24" s="100"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96" t="s">
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="96"/>
-      <c r="O24" s="98"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="102"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100">
+      <c r="A25" s="104">
         <v>365</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="100" t="s">
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105" t="s">
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="104"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="108"/>
     </row>
     <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+      <c r="A26" s="110">
         <v>405</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="91" t="s">
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="114"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85">
+      <c r="A27" s="110">
         <v>436</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88" t="s">
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89" t="s">
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="89"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91" t="s">
+      <c r="H27" s="117"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="93"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="114"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+      <c r="A28" s="110">
         <v>440</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="85" t="s">
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94" t="s">
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89" t="s">
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="89"/>
-      <c r="O28" s="90"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="118"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="85">
+      <c r="A29" s="110">
         <v>488</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89" t="s">
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="89"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91" t="s">
+      <c r="H29" s="117"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="93"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="114"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85">
+      <c r="A30" s="110">
         <v>530</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88" t="s">
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89" t="s">
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="89"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91" t="s">
+      <c r="H30" s="117"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="93"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="114"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="85">
+      <c r="A31" s="110">
         <v>570</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88" t="s">
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89" t="s">
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91" t="s">
+      <c r="H31" s="117"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="93"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="114"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73">
+      <c r="A32" s="120">
         <v>670</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76" t="s">
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77" t="s">
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="79" t="s">
+      <c r="H32" s="124"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="81"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="128"/>
     </row>
     <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -14243,55 +14324,55 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
+      <c r="A40" s="132"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -14345,239 +14426,156 @@
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
     </row>
     <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
+      <c r="A46" s="132"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
     </row>
     <row r="47" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
+      <c r="A47" s="132"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
     </row>
     <row r="48" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="132"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="70">
+      <c r="B50" s="137">
         <f ca="1">TODAY()</f>
-        <v>44882</v>
-      </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
+        <v>44886</v>
+      </c>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="71" t="s">
+      <c r="H50" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="72" t="s">
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
       <c r="O50" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="66" t="s">
+      <c r="B52" s="134"/>
+      <c r="C52" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="67"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="66" t="s">
+      <c r="J52" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="K52" s="67"/>
-      <c r="L52" s="66" t="s">
+      <c r="K52" s="134"/>
+      <c r="L52" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="M52" s="67"/>
-      <c r="N52" s="66" t="s">
+      <c r="M52" s="134"/>
+      <c r="N52" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="O52" s="67"/>
+      <c r="O52" s="134"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68">
+      <c r="B53" s="134"/>
+      <c r="C53" s="135">
         <v>37811</v>
       </c>
-      <c r="D53" s="69"/>
+      <c r="D53" s="136"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="66" t="s">
+      <c r="J53" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="67"/>
-      <c r="L53" s="68" t="s">
+      <c r="K53" s="134"/>
+      <c r="L53" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="M53" s="69"/>
-      <c r="N53" s="68">
+      <c r="M53" s="136"/>
+      <c r="N53" s="135">
         <v>39875</v>
       </c>
-      <c r="O53" s="69"/>
+      <c r="O53" s="136"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="Q4:S11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A46:O46"/>
@@ -14596,6 +14594,89 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="Q4:S11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
@@ -14646,8 +14727,8 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14676,24 +14757,24 @@
       <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="118" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -14701,64 +14782,64 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="126"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="118">
+      <c r="B5" s="92"/>
+      <c r="C5" s="77">
         <v>2</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="129"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -14820,63 +14901,63 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="111" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
     </row>
     <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
@@ -14913,31 +14994,31 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
     </row>
     <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -15045,38 +15126,38 @@
       <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
@@ -15091,26 +15172,26 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="166"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -15149,171 +15230,171 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="95" t="s">
+      <c r="B31" s="100"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="95" t="s">
+      <c r="E31" s="100"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="96"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="99" t="s">
+      <c r="H31" s="100"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="96"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="156" t="s">
+      <c r="K31" s="100"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="N31" s="157"/>
-      <c r="O31" s="158"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="169"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="95" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="162" t="s">
+      <c r="E32" s="100"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="163"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="165" t="s">
+      <c r="H32" s="174"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="163"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="161"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="172"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="166" t="str">
+      <c r="A33" s="161" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167" t="str">
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="148"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="182"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="149" t="str">
+      <c r="A34" s="153" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143" t="str">
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="142"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="152"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="149" t="str">
+      <c r="A35" s="153" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143" t="str">
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="142"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="152"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="149" t="str">
+      <c r="A36" s="153" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143" t="str">
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="142"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="152"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="171" t="str">
+      <c r="A37" s="158" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172" t="str">
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="168"/>
-      <c r="N37" s="168"/>
-      <c r="O37" s="169"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="156"/>
     </row>
     <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
@@ -15328,9 +15409,9 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
     </row>
     <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -15345,9 +15426,9 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="145"/>
-      <c r="O39" s="145"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
     </row>
     <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="140"/>
@@ -15469,21 +15550,21 @@
       <c r="O46" s="140"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="181"/>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
-      <c r="L47" s="181"/>
-      <c r="M47" s="181"/>
-      <c r="N47" s="181"/>
-      <c r="O47" s="181"/>
+      <c r="A47" s="142"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
@@ -15510,131 +15591,115 @@
       <c r="A52" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="70">
+      <c r="B52" s="137">
         <f ca="1">TODAY()</f>
-        <v>44882</v>
-      </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
+        <v>44886</v>
+      </c>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="72" t="s">
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
+      <c r="M52" s="139"/>
+      <c r="N52" s="139"/>
       <c r="O52" s="36"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="173" t="s">
+      <c r="A54" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="173"/>
-      <c r="C54" s="173" t="s">
+      <c r="B54" s="143"/>
+      <c r="C54" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="173"/>
-      <c r="E54" s="175"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="176"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="177"/>
-      <c r="J54" s="173" t="s">
+      <c r="D54" s="143"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="173"/>
-      <c r="L54" s="173" t="s">
+      <c r="K54" s="143"/>
+      <c r="L54" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="M54" s="173"/>
-      <c r="N54" s="173" t="s">
+      <c r="M54" s="143"/>
+      <c r="N54" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="O54" s="173"/>
+      <c r="O54" s="143"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="173" t="s">
+      <c r="A55" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="173"/>
-      <c r="C55" s="174">
+      <c r="B55" s="143"/>
+      <c r="C55" s="144">
         <v>37811</v>
       </c>
-      <c r="D55" s="173"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="179"/>
-      <c r="G55" s="179"/>
-      <c r="H55" s="179"/>
-      <c r="I55" s="180"/>
-      <c r="J55" s="173" t="s">
+      <c r="D55" s="143"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="149"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="K55" s="173"/>
-      <c r="L55" s="174">
+      <c r="K55" s="143"/>
+      <c r="L55" s="144">
         <v>39875</v>
       </c>
-      <c r="M55" s="173"/>
-      <c r="N55" s="174">
+      <c r="M55" s="143"/>
+      <c r="N55" s="144">
         <v>39875</v>
       </c>
-      <c r="O55" s="173"/>
+      <c r="O55" s="143"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:O13"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="G31:I31"/>
@@ -15651,36 +15716,52 @@
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="J32:L32"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E54:I55"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -15705,8 +15786,8 @@
   </sheetPr>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15715,7 +15796,7 @@
     <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
     <col min="4" max="11" width="5.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.109375" style="1" customWidth="1"/>
@@ -15725,103 +15806,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="118" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="31"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="49"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="49"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="118">
+      <c r="B4" s="92"/>
+      <c r="C4" s="77">
         <v>2</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="D4" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="49"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="50"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="26"/>
@@ -15848,23 +15938,23 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="189"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189" t="s">
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="189"/>
+      <c r="E9" s="194"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -15876,17 +15966,17 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="190">
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="209">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="209"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -15912,22 +16002,22 @@
       <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
@@ -15946,26 +16036,26 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="191" t="s">
+      <c r="A14" s="195" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="192" t="s">
+      <c r="B14" s="196"/>
+      <c r="C14" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="97" t="s">
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="97" t="s">
+      <c r="H14" s="197"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="99"/>
+      <c r="L14" s="103"/>
       <c r="M14" s="57" t="s">
         <v>51</v>
       </c>
@@ -15983,20 +16073,20 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="194">
+      <c r="A15" s="192">
         <v>1</v>
       </c>
-      <c r="B15" s="195"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="199"/>
-      <c r="L15" s="199"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -16004,20 +16094,20 @@
       <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="194">
+      <c r="A16" s="192">
         <v>2</v>
       </c>
-      <c r="B16" s="201"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="199"/>
-      <c r="L16" s="199"/>
+      <c r="B16" s="193"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -16025,20 +16115,20 @@
       <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="194">
+      <c r="A17" s="192">
         <v>3</v>
       </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -16046,20 +16136,20 @@
       <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="194">
+      <c r="A18" s="192">
         <v>4</v>
       </c>
-      <c r="B18" s="201"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -16067,20 +16157,20 @@
       <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="194">
+      <c r="A19" s="192">
         <v>5</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="199"/>
-      <c r="L19" s="199"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="188"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -16088,20 +16178,20 @@
       <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="194">
+      <c r="A20" s="192">
         <v>6</v>
       </c>
-      <c r="B20" s="201"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="199"/>
-      <c r="L20" s="199"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="188"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -16109,20 +16199,20 @@
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="194">
+      <c r="A21" s="192">
         <v>7</v>
       </c>
-      <c r="B21" s="201"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="199"/>
-      <c r="L21" s="199"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="188"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -16130,20 +16220,20 @@
       <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="194">
+      <c r="A22" s="192">
         <v>8</v>
       </c>
-      <c r="B22" s="201"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="199"/>
-      <c r="L22" s="199"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -16151,20 +16241,20 @@
       <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="194">
+      <c r="A23" s="192">
         <v>9</v>
       </c>
-      <c r="B23" s="201"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="199"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -16172,20 +16262,20 @@
       <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="194">
+      <c r="A24" s="192">
         <v>10</v>
       </c>
-      <c r="B24" s="201"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="199"/>
-      <c r="L24" s="199"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="188"/>
+      <c r="L24" s="188"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -16193,20 +16283,20 @@
       <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="194">
+      <c r="A25" s="192">
         <v>11</v>
       </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="199"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="188"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="188"/>
+      <c r="L25" s="188"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -16214,20 +16304,20 @@
       <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="194">
+      <c r="A26" s="192">
         <v>12</v>
       </c>
-      <c r="B26" s="201"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="188"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="188"/>
+      <c r="L26" s="188"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -16235,20 +16325,20 @@
       <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="194">
+      <c r="A27" s="192">
         <v>13</v>
       </c>
-      <c r="B27" s="201"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="199"/>
-      <c r="L27" s="199"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="188"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="188"/>
+      <c r="L27" s="188"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -16256,20 +16346,20 @@
       <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="194">
+      <c r="A28" s="192">
         <v>14</v>
       </c>
-      <c r="B28" s="201"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="188"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="188"/>
+      <c r="L28" s="188"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -16277,20 +16367,20 @@
       <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="194">
+      <c r="A29" s="192">
         <v>15</v>
       </c>
-      <c r="B29" s="201"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="199"/>
-      <c r="L29" s="199"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="188"/>
+      <c r="L29" s="188"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -16298,20 +16388,20 @@
       <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="194">
+      <c r="A30" s="192">
         <v>16</v>
       </c>
-      <c r="B30" s="201"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="199"/>
-      <c r="L30" s="199"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="188"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -16319,20 +16409,20 @@
       <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="194">
+      <c r="A31" s="192">
         <v>17</v>
       </c>
-      <c r="B31" s="201"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="199"/>
-      <c r="L31" s="199"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="188"/>
+      <c r="L31" s="188"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -16340,20 +16430,20 @@
       <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="194">
+      <c r="A32" s="192">
         <v>18</v>
       </c>
-      <c r="B32" s="201"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="199"/>
-      <c r="F32" s="199"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="199"/>
-      <c r="L32" s="199"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="188"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -16361,20 +16451,20 @@
       <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="194">
+      <c r="A33" s="192">
         <v>19</v>
       </c>
-      <c r="B33" s="201"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="199"/>
-      <c r="F33" s="199"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="199"/>
-      <c r="L33" s="199"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="188"/>
+      <c r="L33" s="188"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -16382,20 +16472,20 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="194">
+      <c r="A34" s="192">
         <v>20</v>
       </c>
-      <c r="B34" s="201"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
-      <c r="G34" s="208"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="199"/>
-      <c r="L34" s="199"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="188"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -16403,20 +16493,20 @@
       <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="194">
+      <c r="A35" s="192">
         <v>21</v>
       </c>
-      <c r="B35" s="201"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="200"/>
-      <c r="K35" s="199"/>
-      <c r="L35" s="199"/>
+      <c r="B35" s="193"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="188"/>
+      <c r="L35" s="188"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -16424,20 +16514,20 @@
       <c r="Q35" s="60"/>
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="194">
+      <c r="A36" s="192">
         <v>22</v>
       </c>
-      <c r="B36" s="201"/>
-      <c r="C36" s="199"/>
-      <c r="D36" s="199"/>
-      <c r="E36" s="199"/>
-      <c r="F36" s="199"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="199"/>
-      <c r="L36" s="199"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="188"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -16445,20 +16535,20 @@
       <c r="Q36" s="60"/>
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="194">
+      <c r="A37" s="192">
         <v>23</v>
       </c>
-      <c r="B37" s="201"/>
-      <c r="C37" s="199"/>
-      <c r="D37" s="199"/>
-      <c r="E37" s="199"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="199"/>
-      <c r="L37" s="199"/>
+      <c r="B37" s="193"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="189"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="188"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -16466,20 +16556,20 @@
       <c r="Q37" s="60"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="194">
+      <c r="A38" s="192">
         <v>24</v>
       </c>
-      <c r="B38" s="201"/>
-      <c r="C38" s="199"/>
-      <c r="D38" s="199"/>
-      <c r="E38" s="199"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
-      <c r="K38" s="199"/>
-      <c r="L38" s="199"/>
+      <c r="B38" s="193"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="188"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
@@ -16487,20 +16577,20 @@
       <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="194">
+      <c r="A39" s="192">
         <v>25</v>
       </c>
-      <c r="B39" s="201"/>
-      <c r="C39" s="199"/>
-      <c r="D39" s="199"/>
-      <c r="E39" s="199"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="208"/>
-      <c r="H39" s="199"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="199"/>
-      <c r="L39" s="199"/>
+      <c r="B39" s="193"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="189"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -16508,20 +16598,20 @@
       <c r="Q39" s="60"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="194">
+      <c r="A40" s="192">
         <v>26</v>
       </c>
-      <c r="B40" s="201"/>
-      <c r="C40" s="199"/>
-      <c r="D40" s="199"/>
-      <c r="E40" s="199"/>
-      <c r="F40" s="199"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="199"/>
-      <c r="I40" s="199"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="199"/>
-      <c r="L40" s="199"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="189"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="188"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -16529,20 +16619,20 @@
       <c r="Q40" s="60"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="194">
+      <c r="A41" s="192">
         <v>27</v>
       </c>
-      <c r="B41" s="201"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="199"/>
-      <c r="E41" s="199"/>
-      <c r="F41" s="199"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="199"/>
-      <c r="I41" s="199"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="199"/>
-      <c r="L41" s="199"/>
+      <c r="B41" s="193"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="189"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="188"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -16550,20 +16640,20 @@
       <c r="Q41" s="60"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="202">
+      <c r="A42" s="184">
         <v>28</v>
       </c>
-      <c r="B42" s="203"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="208"/>
-      <c r="H42" s="199"/>
-      <c r="I42" s="199"/>
-      <c r="J42" s="200"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="204"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="186"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="186"/>
+      <c r="L42" s="186"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -16583,19 +16673,19 @@
       <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="205"/>
-      <c r="B44" s="205"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="205"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="205"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="205"/>
-      <c r="M44" s="205"/>
+      <c r="A44" s="190"/>
+      <c r="B44" s="190"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="190"/>
+      <c r="K44" s="190"/>
+      <c r="L44" s="190"/>
+      <c r="M44" s="190"/>
       <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16618,102 +16708,211 @@
       <c r="A47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="55" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="70">
+      <c r="B55" s="137">
         <f ca="1">TODAY()</f>
-        <v>44882</v>
-      </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
+        <v>44886</v>
+      </c>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="71" t="s">
+      <c r="H55" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="206" t="s">
+      <c r="I55" s="138"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="L55" s="206"/>
-      <c r="M55" s="206"/>
+      <c r="L55" s="191"/>
+      <c r="M55" s="191"/>
       <c r="N55" s="63"/>
     </row>
-    <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L56" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="173" t="s">
+      <c r="B57" s="134"/>
+      <c r="C57" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="173"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="176"/>
-      <c r="H57" s="177"/>
-      <c r="I57" s="66" t="s">
+      <c r="D57" s="143"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="67"/>
-      <c r="K57" s="173" t="s">
+      <c r="J57" s="134"/>
+      <c r="K57" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="L57" s="173"/>
-      <c r="M57" s="173" t="s">
+      <c r="L57" s="133"/>
+      <c r="M57" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="N57" s="173"/>
-    </row>
-    <row r="58" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
+      <c r="N57" s="183"/>
+      <c r="O57" s="183"/>
+      <c r="P57" s="183"/>
+      <c r="Q57" s="134"/>
+    </row>
+    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="174">
+      <c r="B58" s="134"/>
+      <c r="C58" s="144">
         <v>37811</v>
       </c>
-      <c r="D58" s="173"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="180"/>
-      <c r="I58" s="66" t="s">
+      <c r="D58" s="143"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="J58" s="207"/>
-      <c r="K58" s="174">
+      <c r="J58" s="183"/>
+      <c r="K58" s="144">
         <v>39875</v>
       </c>
-      <c r="L58" s="173"/>
-      <c r="M58" s="174">
+      <c r="L58" s="143"/>
+      <c r="M58" s="135">
         <v>39875</v>
       </c>
-      <c r="N58" s="173"/>
+      <c r="N58" s="211"/>
+      <c r="O58" s="211"/>
+      <c r="P58" s="211"/>
+      <c r="Q58" s="136"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="146">
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:J5"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="G42:J42"/>
@@ -16730,125 +16929,17 @@
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="K41:L41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K1:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:J5"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:J42">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Missing">
@@ -16858,6 +16949,7 @@
   <pageMargins left="0.78740157480314965" right="0" top="0.51181102362204722" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16866,8 +16958,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16878,10 +16970,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="118"/>
+      <c r="A1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
+      <c r="A2" s="78"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C9FF18-74B4-4516-8B3A-D35527F66292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A642205-1E7A-4806-87F9-9D5566EDC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CoA" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>Dokument Nr.</t>
   </si>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>Seite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>OPB2-F015</t>
@@ -194,12 +190,6 @@
     <t>Freigabe</t>
   </si>
   <si>
-    <t>M. Stolze</t>
-  </si>
-  <si>
-    <t>B. Frei</t>
-  </si>
-  <si>
     <t>Raw Glas Type</t>
   </si>
   <si>
@@ -311,6 +301,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>E. Zech</t>
+  </si>
+  <si>
+    <t>M. Herbert</t>
+  </si>
+  <si>
+    <t>E.Zech</t>
   </si>
 </sst>
 </file>
@@ -1176,11 +1175,140 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1189,9 +1317,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,170 +1404,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1445,48 +1418,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,81 +1489,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1616,10 +1558,67 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12943,10 +12942,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246081</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>13896</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="824037" cy="407445"/>
     <xdr:pic>
@@ -12977,7 +12976,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4432599" y="49755"/>
+          <a:off x="4934622" y="58719"/>
           <a:ext cx="824037" cy="407445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13017,10 +13016,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>322728</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:rowOff>31826</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="753035" cy="424932"/>
     <xdr:pic>
@@ -13051,7 +13050,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4509247" y="58720"/>
+          <a:off x="5011269" y="67685"/>
           <a:ext cx="753035" cy="424932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13544,8 +13543,8 @@
   </sheetPr>
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13566,24 +13565,24 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="E2" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -13591,131 +13590,131 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="119">
+        <v>2</v>
+      </c>
+      <c r="D5" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="77">
-        <v>2</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
     </row>
     <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
     </row>
     <row r="7" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
     </row>
     <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H8" s="25"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
     </row>
     <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -13733,9 +13732,9 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -13772,113 +13771,113 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67" t="s">
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="69" t="s">
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-    </row>
-    <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="69" t="s">
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+    </row>
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-    </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67" t="s">
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="69" t="s">
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-    </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69">
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110">
         <v>1</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -13916,7 +13915,7 @@
     </row>
     <row r="21" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -13924,10 +13923,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="98"/>
+      <c r="H21" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="111"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -13953,256 +13952,256 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="99" t="s">
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100" t="s">
+      <c r="H23" s="97"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="97"/>
+      <c r="O23" s="99"/>
+    </row>
+    <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="100"/>
-      <c r="O23" s="102"/>
-    </row>
-    <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="99" t="s">
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="97"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100" t="s">
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103" t="s">
+      <c r="N24" s="97"/>
+      <c r="O24" s="99"/>
+    </row>
+    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="101">
+        <v>365</v>
+      </c>
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="100"/>
-      <c r="O24" s="102"/>
-    </row>
-    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104">
-        <v>365</v>
-      </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="104" t="s">
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109" t="s">
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="105"/>
+    </row>
+    <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
+        <v>405</v>
+      </c>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="108"/>
-    </row>
-    <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="110">
-        <v>405</v>
-      </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="110" t="s">
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="114"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110">
+      <c r="A27" s="86">
         <v>436</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="116" t="s">
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="117"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="115" t="s">
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
+    </row>
+    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="86">
+        <v>440</v>
+      </c>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="114"/>
-    </row>
-    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110">
-        <v>440</v>
-      </c>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="110" t="s">
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="90"/>
+      <c r="O28" s="91"/>
+    </row>
+    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="86">
+        <v>488</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="117"/>
-      <c r="O28" s="118"/>
-    </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110">
-        <v>488</v>
-      </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="117"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="115" t="s">
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="94"/>
+    </row>
+    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="86">
+        <v>530</v>
+      </c>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="114"/>
-    </row>
-    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110">
-        <v>530</v>
-      </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="117"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="115" t="s">
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="94"/>
+    </row>
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="86">
+        <v>570</v>
+      </c>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="114"/>
-    </row>
-    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110">
-        <v>570</v>
-      </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="117"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="115" t="s">
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="94"/>
+    </row>
+    <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74">
+        <v>670</v>
+      </c>
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="114"/>
-    </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120">
-        <v>670</v>
-      </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="124"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="128"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="82"/>
     </row>
     <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -14223,7 +14222,7 @@
     </row>
     <row r="34" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -14242,7 +14241,7 @@
     </row>
     <row r="35" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -14252,14 +14251,14 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
@@ -14301,21 +14300,21 @@
     </row>
     <row r="38" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -14324,55 +14323,55 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="129"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -14426,156 +14425,239 @@
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="132"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
     </row>
     <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="132"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
     </row>
     <row r="47" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
     </row>
     <row r="48" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="132"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="137">
+        <v>41</v>
+      </c>
+      <c r="B50" s="71">
         <f ca="1">TODAY()</f>
-        <v>44886</v>
-      </c>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
+        <v>44889</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="138" t="s">
+      <c r="H50" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="139" t="s">
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="9"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="133" t="s">
+      <c r="B52" s="68"/>
+      <c r="C52" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="134"/>
-      <c r="C52" s="133" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="134"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="133" t="s">
+      <c r="J52" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="68"/>
+      <c r="L52" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="K52" s="134"/>
-      <c r="L52" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="M52" s="134"/>
-      <c r="N52" s="133" t="s">
-        <v>46</v>
-      </c>
-      <c r="O52" s="134"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" s="68"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="133" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="134"/>
-      <c r="C53" s="135">
-        <v>37811</v>
-      </c>
-      <c r="D53" s="136"/>
+      <c r="A53" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69">
+        <v>44883</v>
+      </c>
+      <c r="D53" s="70"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="M53" s="136"/>
-      <c r="N53" s="135">
-        <v>39875</v>
-      </c>
-      <c r="O53" s="136"/>
+      <c r="J53" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="K53" s="68"/>
+      <c r="L53" s="69">
+        <v>44883</v>
+      </c>
+      <c r="M53" s="70"/>
+      <c r="N53" s="69">
+        <v>44883</v>
+      </c>
+      <c r="O53" s="70"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="Q4:S11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A46:O46"/>
@@ -14594,89 +14676,6 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="Q4:S11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
@@ -14727,8 +14726,8 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52:N52"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55:O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14757,24 +14756,24 @@
       <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="E2" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -14782,64 +14781,64 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="77">
+      <c r="A5" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="119">
         <v>2</v>
       </c>
-      <c r="D5" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="D5" s="137" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -14901,63 +14900,63 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67" t="s">
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="I12" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="164"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
@@ -14994,31 +14993,31 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="164"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
     </row>
     <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -15126,38 +15125,38 @@
       <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
@@ -15172,30 +15171,30 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="166"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -15230,171 +15229,171 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="100"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="100"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="100"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="167" t="s">
+      <c r="A31" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="97"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="N31" s="168"/>
-      <c r="O31" s="169"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="97"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="97"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" s="158"/>
+      <c r="O31" s="159"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="100"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="173" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="174"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="174"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="172"/>
+      <c r="A32" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="97"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="97"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="163" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="164"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="166" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="164"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="162"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161" t="str">
+      <c r="A33" s="167" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162" t="str">
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="182"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="149"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="153" t="str">
+      <c r="A34" s="150" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154" t="str">
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="152"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="143"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="str">
+      <c r="A35" s="150" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154" t="str">
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="152"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="143"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="153" t="str">
+      <c r="A36" s="150" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154" t="str">
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="152"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="143"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="158" t="str">
+      <c r="A37" s="172" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141" t="str">
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="156"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="170"/>
     </row>
     <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
@@ -15409,9 +15408,9 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="146"/>
     </row>
     <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -15426,145 +15425,145 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="146"/>
+      <c r="O39" s="146"/>
     </row>
     <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="140"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="140"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
+      <c r="O40" s="141"/>
     </row>
     <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="140"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="140"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
     </row>
     <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="140"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="140"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="141"/>
     </row>
     <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="140"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="141"/>
     </row>
     <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="140"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
-      <c r="N44" s="140"/>
-      <c r="O44" s="140"/>
+      <c r="A44" s="141"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="141"/>
+      <c r="L44" s="141"/>
+      <c r="M44" s="141"/>
+      <c r="N44" s="141"/>
+      <c r="O44" s="141"/>
     </row>
     <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="140"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="140"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141"/>
+      <c r="L45" s="141"/>
+      <c r="M45" s="141"/>
+      <c r="N45" s="141"/>
+      <c r="O45" s="141"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="140"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="140"/>
-      <c r="O46" s="140"/>
+      <c r="A46" s="141"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="141"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="141"/>
+      <c r="M46" s="141"/>
+      <c r="N46" s="141"/>
+      <c r="O46" s="141"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="142"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="182"/>
+      <c r="L47" s="182"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="182"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
@@ -15589,87 +15588,163 @@
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="137">
+        <v>41</v>
+      </c>
+      <c r="B52" s="71">
         <f ca="1">TODAY()</f>
-        <v>44886</v>
-      </c>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
+        <v>44889</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="138" t="s">
+      <c r="H52" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="139" t="s">
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="36"/>
+    </row>
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="M52" s="139"/>
-      <c r="N52" s="139"/>
-      <c r="O52" s="36"/>
-    </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="143" t="s">
+      <c r="B54" s="174"/>
+      <c r="C54" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143" t="s">
+      <c r="D54" s="174"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="143"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="143" t="s">
+      <c r="K54" s="174"/>
+      <c r="L54" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="K54" s="143"/>
-      <c r="L54" s="143" t="s">
-        <v>48</v>
-      </c>
-      <c r="M54" s="143"/>
-      <c r="N54" s="143" t="s">
-        <v>46</v>
-      </c>
-      <c r="O54" s="143"/>
+      <c r="M54" s="174"/>
+      <c r="N54" s="174" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="174"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="143" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="144">
-        <v>37811</v>
-      </c>
-      <c r="D55" s="143"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="143" t="s">
-        <v>50</v>
-      </c>
-      <c r="K55" s="143"/>
-      <c r="L55" s="144">
-        <v>39875</v>
-      </c>
-      <c r="M55" s="143"/>
-      <c r="N55" s="144">
-        <v>39875</v>
-      </c>
-      <c r="O55" s="143"/>
+      <c r="A55" s="174" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="174"/>
+      <c r="C55" s="175">
+        <v>44883</v>
+      </c>
+      <c r="D55" s="174"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="174" t="s">
+        <v>86</v>
+      </c>
+      <c r="K55" s="174"/>
+      <c r="L55" s="175">
+        <v>44883</v>
+      </c>
+      <c r="M55" s="174"/>
+      <c r="N55" s="175">
+        <v>44883</v>
+      </c>
+      <c r="O55" s="174"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E54:I55"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M31:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A40:O40"/>
@@ -15686,82 +15761,6 @@
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M31:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -15787,7 +15786,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+      <selection activeCell="M58" sqref="M58:Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15806,109 +15805,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
+      <c r="E1" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
       <c r="O1" s="32"/>
       <c r="P1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
       <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="77">
+      <c r="A4" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="134"/>
+      <c r="C4" s="119">
         <v>2</v>
       </c>
-      <c r="D4" s="208" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
+      <c r="D4" s="189" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
       <c r="O4" s="65"/>
       <c r="P4" s="65"/>
       <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="50"/>
@@ -15922,7 +15921,7 @@
     </row>
     <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -15938,23 +15937,23 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="194"/>
+      <c r="A9" s="190" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="190"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -15966,17 +15965,17 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="194" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="209">
+      <c r="A10" s="190" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="191">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="209"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -16002,22 +16001,22 @@
       <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="194" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="194"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
+      <c r="A12" s="190" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
@@ -16036,57 +16035,57 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="192" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196" t="s">
+      <c r="L14" s="100"/>
+      <c r="M14" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="57" t="s">
+      <c r="O14" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="57" t="s">
-        <v>54</v>
-      </c>
       <c r="P14" s="57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="192">
+      <c r="A15" s="195">
         <v>1</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -16094,20 +16093,20 @@
       <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="192">
+      <c r="A16" s="195">
         <v>2</v>
       </c>
-      <c r="B16" s="193"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -16115,20 +16114,20 @@
       <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="192">
+      <c r="A17" s="195">
         <v>3</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -16136,20 +16135,20 @@
       <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="192">
+      <c r="A18" s="195">
         <v>4</v>
       </c>
-      <c r="B18" s="193"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="188"/>
-      <c r="L18" s="188"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -16157,20 +16156,20 @@
       <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="192">
+      <c r="A19" s="195">
         <v>5</v>
       </c>
-      <c r="B19" s="193"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="188"/>
-      <c r="L19" s="188"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -16178,20 +16177,20 @@
       <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="192">
+      <c r="A20" s="195">
         <v>6</v>
       </c>
-      <c r="B20" s="193"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="188"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -16199,20 +16198,20 @@
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="192">
+      <c r="A21" s="195">
         <v>7</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="188"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -16220,20 +16219,20 @@
       <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="192">
+      <c r="A22" s="195">
         <v>8</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -16241,20 +16240,20 @@
       <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192">
+      <c r="A23" s="195">
         <v>9</v>
       </c>
-      <c r="B23" s="193"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -16262,20 +16261,20 @@
       <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="192">
+      <c r="A24" s="195">
         <v>10</v>
       </c>
-      <c r="B24" s="193"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -16283,20 +16282,20 @@
       <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="192">
+      <c r="A25" s="195">
         <v>11</v>
       </c>
-      <c r="B25" s="193"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -16304,20 +16303,20 @@
       <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="192">
+      <c r="A26" s="195">
         <v>12</v>
       </c>
-      <c r="B26" s="193"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="188"/>
-      <c r="L26" s="188"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -16325,20 +16324,20 @@
       <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="192">
+      <c r="A27" s="195">
         <v>13</v>
       </c>
-      <c r="B27" s="193"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="188"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="188"/>
-      <c r="L27" s="188"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -16346,20 +16345,20 @@
       <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="192">
+      <c r="A28" s="195">
         <v>14</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="188"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -16367,20 +16366,20 @@
       <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="192">
+      <c r="A29" s="195">
         <v>15</v>
       </c>
-      <c r="B29" s="193"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="188"/>
-      <c r="J29" s="189"/>
-      <c r="K29" s="188"/>
-      <c r="L29" s="188"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -16388,20 +16387,20 @@
       <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="192">
+      <c r="A30" s="195">
         <v>16</v>
       </c>
-      <c r="B30" s="193"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="188"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -16409,20 +16408,20 @@
       <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="192">
+      <c r="A31" s="195">
         <v>17</v>
       </c>
-      <c r="B31" s="193"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="188"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="201"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="201"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="201"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -16430,20 +16429,20 @@
       <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="192">
+      <c r="A32" s="195">
         <v>18</v>
       </c>
-      <c r="B32" s="193"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="188"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -16451,20 +16450,20 @@
       <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="192">
+      <c r="A33" s="195">
         <v>19</v>
       </c>
-      <c r="B33" s="193"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -16472,20 +16471,20 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="192">
+      <c r="A34" s="195">
         <v>20</v>
       </c>
-      <c r="B34" s="193"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="188"/>
-      <c r="L34" s="188"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="202"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="201"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -16493,20 +16492,20 @@
       <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="192">
+      <c r="A35" s="195">
         <v>21</v>
       </c>
-      <c r="B35" s="193"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="188"/>
-      <c r="L35" s="188"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="201"/>
+      <c r="J35" s="202"/>
+      <c r="K35" s="201"/>
+      <c r="L35" s="201"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -16514,20 +16513,20 @@
       <c r="Q35" s="60"/>
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="192">
+      <c r="A36" s="195">
         <v>22</v>
       </c>
-      <c r="B36" s="193"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="188"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
+      <c r="J36" s="202"/>
+      <c r="K36" s="201"/>
+      <c r="L36" s="201"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -16535,20 +16534,20 @@
       <c r="Q36" s="60"/>
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="192">
+      <c r="A37" s="195">
         <v>23</v>
       </c>
-      <c r="B37" s="193"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="189"/>
-      <c r="K37" s="188"/>
-      <c r="L37" s="188"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="201"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="201"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="201"/>
+      <c r="L37" s="201"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -16556,20 +16555,20 @@
       <c r="Q37" s="60"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="192">
+      <c r="A38" s="195">
         <v>24</v>
       </c>
-      <c r="B38" s="193"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="189"/>
-      <c r="K38" s="188"/>
-      <c r="L38" s="188"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="202"/>
+      <c r="K38" s="201"/>
+      <c r="L38" s="201"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
@@ -16577,20 +16576,20 @@
       <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="192">
+      <c r="A39" s="195">
         <v>25</v>
       </c>
-      <c r="B39" s="193"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="188"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="189"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="188"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="202"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="201"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -16598,20 +16597,20 @@
       <c r="Q39" s="60"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="192">
+      <c r="A40" s="195">
         <v>26</v>
       </c>
-      <c r="B40" s="193"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="189"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="188"/>
+      <c r="B40" s="203"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="202"/>
+      <c r="K40" s="201"/>
+      <c r="L40" s="201"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -16619,20 +16618,20 @@
       <c r="Q40" s="60"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="192">
+      <c r="A41" s="195">
         <v>27</v>
       </c>
-      <c r="B41" s="193"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="188"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="201"/>
+      <c r="L41" s="201"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -16640,20 +16639,20 @@
       <c r="Q41" s="60"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="184">
+      <c r="A42" s="204">
         <v>28</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="210"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="186"/>
-      <c r="L42" s="186"/>
+      <c r="B42" s="205"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="206"/>
+      <c r="L42" s="206"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -16673,19 +16672,19 @@
       <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="190"/>
-      <c r="B44" s="190"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="190"/>
-      <c r="K44" s="190"/>
-      <c r="L44" s="190"/>
-      <c r="M44" s="190"/>
+      <c r="A44" s="208"/>
+      <c r="B44" s="208"/>
+      <c r="C44" s="208"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="208"/>
+      <c r="K44" s="208"/>
+      <c r="L44" s="208"/>
+      <c r="M44" s="208"/>
       <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16710,113 +16709,197 @@
     </row>
     <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="137">
+        <v>41</v>
+      </c>
+      <c r="B55" s="71">
         <f ca="1">TODAY()</f>
-        <v>44886</v>
-      </c>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
+        <v>44889</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="138" t="s">
+      <c r="H55" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="191" t="s">
+      <c r="L55" s="209"/>
+      <c r="M55" s="209"/>
+      <c r="N55" s="63"/>
+    </row>
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="L55" s="191"/>
-      <c r="M55" s="191"/>
-      <c r="N55" s="63"/>
-    </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="133" t="s">
+      <c r="B57" s="68"/>
+      <c r="C57" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="134"/>
-      <c r="C57" s="143" t="s">
+      <c r="D57" s="174"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="178"/>
+      <c r="I57" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="143"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="133" t="s">
+      <c r="J57" s="68"/>
+      <c r="K57" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="134"/>
-      <c r="K57" s="143" t="s">
-        <v>48</v>
-      </c>
-      <c r="L57" s="133"/>
-      <c r="M57" s="133" t="s">
-        <v>46</v>
-      </c>
-      <c r="N57" s="183"/>
-      <c r="O57" s="183"/>
-      <c r="P57" s="183"/>
-      <c r="Q57" s="134"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="N57" s="210"/>
+      <c r="O57" s="210"/>
+      <c r="P57" s="210"/>
+      <c r="Q57" s="68"/>
     </row>
     <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="133" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="134"/>
-      <c r="C58" s="144">
-        <v>37811</v>
-      </c>
-      <c r="D58" s="143"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="J58" s="183"/>
-      <c r="K58" s="144">
-        <v>39875</v>
-      </c>
-      <c r="L58" s="143"/>
-      <c r="M58" s="135">
-        <v>39875</v>
+      <c r="A58" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="68"/>
+      <c r="C58" s="175">
+        <v>44883</v>
+      </c>
+      <c r="D58" s="174"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="180"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58" s="210"/>
+      <c r="K58" s="175">
+        <v>44883</v>
+      </c>
+      <c r="L58" s="174"/>
+      <c r="M58" s="69">
+        <v>44883</v>
       </c>
       <c r="N58" s="211"/>
       <c r="O58" s="211"/>
       <c r="P58" s="211"/>
-      <c r="Q58" s="136"/>
+      <c r="Q58" s="70"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="146">
-    <mergeCell ref="K1:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:J5"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:J18"/>
@@ -16833,113 +16916,29 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:J42">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Missing">
@@ -16970,44 +16969,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
+      <c r="A1" s="119"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="120"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A642205-1E7A-4806-87F9-9D5566EDC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9A1AF-A7F8-42C2-ACBE-03C6C33912B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CoA" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
   <si>
     <t>Dokument Nr.</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Quality Inspection:</t>
-  </si>
-  <si>
-    <t>Maria Conception</t>
   </si>
   <si>
     <t>Dok. Erstellt</t>
@@ -1175,140 +1172,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1317,11 +1185,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,13 +1270,170 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1418,45 +1441,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1489,53 +1515,87 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1558,71 +1618,8 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13543,8 +13540,8 @@
   </sheetPr>
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53:O53"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13565,24 +13562,24 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="E2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -13590,131 +13587,131 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="119">
+      <c r="B5" s="92"/>
+      <c r="C5" s="77">
         <v>2</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
     </row>
     <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
     </row>
     <row r="7" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
     </row>
     <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H8" s="25"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
     </row>
     <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -13732,9 +13729,9 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -13771,113 +13768,113 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="112" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="112" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
+      <c r="A18" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110">
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69">
         <v>1</v>
       </c>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -13923,10 +13920,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="111"/>
+      <c r="I21" s="98"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -13952,256 +13949,256 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="96" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97" t="s">
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="97"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100" t="s">
+      <c r="H23" s="100"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97" t="s">
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="97"/>
-      <c r="O23" s="99"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="102"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="96" t="s">
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97" t="s">
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100" t="s">
+      <c r="H24" s="100"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97" t="s">
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="99"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="102"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101">
+      <c r="A25" s="104">
         <v>365</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="101" t="s">
+      <c r="B25" s="105"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106" t="s">
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="108"/>
     </row>
     <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86">
+      <c r="A26" s="110">
         <v>405</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="86" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="92" t="s">
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="114"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86">
+      <c r="A27" s="110">
         <v>436</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90" t="s">
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="92" t="s">
+      <c r="H27" s="117"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="114"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86">
+      <c r="A28" s="110">
         <v>440</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="86" t="s">
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="95" t="s">
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90" t="s">
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="90"/>
-      <c r="O28" s="91"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="118"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86">
+      <c r="A29" s="110">
         <v>488</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90" t="s">
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92" t="s">
+      <c r="H29" s="117"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="94"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="114"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86">
+      <c r="A30" s="110">
         <v>530</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89" t="s">
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90" t="s">
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92" t="s">
+      <c r="H30" s="117"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="94"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="114"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86">
+      <c r="A31" s="110">
         <v>570</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89" t="s">
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90" t="s">
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="92" t="s">
+      <c r="H31" s="117"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="94"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="114"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74">
+      <c r="A32" s="120">
         <v>670</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77" t="s">
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78" t="s">
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="80" t="s">
+      <c r="H32" s="124"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="82"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="128"/>
     </row>
     <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -14258,7 +14255,7 @@
         <v>37</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
@@ -14323,55 +14320,55 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
+      <c r="A40" s="132"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="132"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -14425,239 +14422,151 @@
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
     </row>
     <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
+      <c r="A46" s="132"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
     </row>
     <row r="47" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
+      <c r="A47" s="132"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
     </row>
     <row r="48" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="132"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="71">
-        <f ca="1">TODAY()</f>
-        <v>44889</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="72" t="s">
+      <c r="H50" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73" t="s">
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="9"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
+      <c r="B52" s="134"/>
+      <c r="C52" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="68"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="67" t="s">
+      <c r="J52" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="134"/>
+      <c r="L52" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="68"/>
-      <c r="L52" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="M52" s="68"/>
-      <c r="N52" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="O52" s="68"/>
+      <c r="M52" s="134"/>
+      <c r="N52" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" s="134"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69">
+      <c r="A53" s="133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="134"/>
+      <c r="C53" s="135">
         <v>44883</v>
       </c>
-      <c r="D53" s="70"/>
+      <c r="D53" s="136"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="K53" s="68"/>
-      <c r="L53" s="69">
+      <c r="J53" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="134"/>
+      <c r="L53" s="135">
         <v>44883</v>
       </c>
-      <c r="M53" s="70"/>
-      <c r="N53" s="69">
+      <c r="M53" s="136"/>
+      <c r="N53" s="135">
         <v>44883</v>
       </c>
-      <c r="O53" s="70"/>
+      <c r="O53" s="136"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="Q4:S11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A46:O46"/>
@@ -14676,6 +14585,89 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="Q4:S11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
@@ -14726,8 +14718,8 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55:O55"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14756,24 +14748,24 @@
       <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="E2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -14781,64 +14773,64 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="119">
+      <c r="B5" s="92"/>
+      <c r="C5" s="77">
         <v>2</v>
       </c>
-      <c r="D5" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
+      <c r="D5" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -14900,63 +14892,63 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="112" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
     </row>
     <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
+      <c r="I12" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
@@ -14993,31 +14985,31 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
     </row>
     <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -15125,38 +15117,38 @@
       <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
@@ -15171,30 +15163,30 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="166"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -15229,171 +15221,171 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="96" t="s">
+      <c r="B31" s="100"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="97"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100" t="s">
+      <c r="E31" s="100"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="157" t="s">
+      <c r="H31" s="100"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="N31" s="158"/>
-      <c r="O31" s="159"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="168"/>
+      <c r="O31" s="169"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="163" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="166" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="164"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="162"/>
+      <c r="A32" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="100"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="100"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="173" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="174"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="174"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="172"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="167" t="str">
+      <c r="A33" s="161" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168" t="str">
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="149"/>
+      <c r="E33" s="162"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="182"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="150" t="str">
+      <c r="A34" s="153" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144" t="str">
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="143"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="152"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="str">
+      <c r="A35" s="153" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144" t="str">
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="142"/>
-      <c r="N35" s="142"/>
-      <c r="O35" s="143"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="152"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="150" t="str">
+      <c r="A36" s="153" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144" t="str">
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="142"/>
-      <c r="O36" s="143"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="160"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="152"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="172" t="str">
+      <c r="A37" s="158" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173" t="str">
+      <c r="B37" s="141"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="141" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="170"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="156"/>
     </row>
     <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
@@ -15408,9 +15400,9 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
     </row>
     <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -15425,145 +15417,145 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="146"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
     </row>
     <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="141"/>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="141"/>
-      <c r="N40" s="141"/>
-      <c r="O40" s="141"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="140"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="140"/>
     </row>
     <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="141"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="141"/>
-      <c r="L41" s="141"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
-      <c r="O41" s="141"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="140"/>
     </row>
     <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="141"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="141"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="140"/>
     </row>
     <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="141"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="141"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="140"/>
+      <c r="N43" s="140"/>
+      <c r="O43" s="140"/>
     </row>
     <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="141"/>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="141"/>
-      <c r="K44" s="141"/>
-      <c r="L44" s="141"/>
-      <c r="M44" s="141"/>
-      <c r="N44" s="141"/>
-      <c r="O44" s="141"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="140"/>
+      <c r="N44" s="140"/>
+      <c r="O44" s="140"/>
     </row>
     <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="141"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
-      <c r="M45" s="141"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="141"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="140"/>
+      <c r="M45" s="140"/>
+      <c r="N45" s="140"/>
+      <c r="O45" s="140"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="141"/>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141"/>
-      <c r="L46" s="141"/>
-      <c r="M46" s="141"/>
-      <c r="N46" s="141"/>
-      <c r="O46" s="141"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="140"/>
+      <c r="O46" s="140"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="182"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="182"/>
-      <c r="J47" s="182"/>
-      <c r="K47" s="182"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="182"/>
-      <c r="O47" s="182"/>
+      <c r="A47" s="142"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
@@ -15590,131 +15582,110 @@
       <c r="A52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="71">
-        <f ca="1">TODAY()</f>
-        <v>44889</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="72" t="s">
+      <c r="H52" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="73" t="s">
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="139"/>
+      <c r="M52" s="139"/>
+      <c r="N52" s="139"/>
+      <c r="O52" s="36"/>
+    </row>
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="36"/>
-    </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="174" t="s">
+      <c r="B54" s="143"/>
+      <c r="C54" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174" t="s">
+      <c r="D54" s="143"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="174"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="177"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="174" t="s">
+      <c r="K54" s="143"/>
+      <c r="L54" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="K54" s="174"/>
-      <c r="L54" s="174" t="s">
-        <v>47</v>
-      </c>
-      <c r="M54" s="174"/>
-      <c r="N54" s="174" t="s">
-        <v>45</v>
-      </c>
-      <c r="O54" s="174"/>
+      <c r="M54" s="143"/>
+      <c r="N54" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="O54" s="143"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="174" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="174"/>
-      <c r="C55" s="175">
+      <c r="A55" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144">
         <v>44883</v>
       </c>
-      <c r="D55" s="174"/>
-      <c r="E55" s="179"/>
-      <c r="F55" s="180"/>
-      <c r="G55" s="180"/>
-      <c r="H55" s="180"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="K55" s="174"/>
-      <c r="L55" s="175">
+      <c r="D55" s="143"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="149"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" s="143"/>
+      <c r="L55" s="144">
         <v>44883</v>
       </c>
-      <c r="M55" s="174"/>
-      <c r="N55" s="175">
+      <c r="M55" s="143"/>
+      <c r="N55" s="144">
         <v>44883</v>
       </c>
-      <c r="O55" s="174"/>
+      <c r="O55" s="143"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:O13"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="G31:I31"/>
@@ -15731,36 +15702,52 @@
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="J32:L32"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E54:I55"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -15786,7 +15773,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58:Q58"/>
+      <selection activeCell="K55" sqref="K55:M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15805,109 +15792,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
+      <c r="E1" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
       <c r="O1" s="32"/>
       <c r="P1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
       <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="119">
+      <c r="B4" s="92"/>
+      <c r="C4" s="77">
         <v>2</v>
       </c>
-      <c r="D4" s="189" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
+      <c r="D4" s="210" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
       <c r="O4" s="65"/>
       <c r="P4" s="65"/>
       <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="209"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="209"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="50"/>
@@ -15921,7 +15908,7 @@
     </row>
     <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -15937,23 +15924,23 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="190"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="196" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="190"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -15965,17 +15952,17 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="190" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="190"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="191">
+      <c r="A10" s="196" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="211">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -16001,22 +15988,22 @@
       <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="190" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="190"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
+      <c r="A12" s="196" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="196"/>
+      <c r="L12" s="196"/>
+      <c r="M12" s="196"/>
+      <c r="N12" s="196"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
@@ -16035,57 +16022,57 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="197" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193" t="s">
+      <c r="D14" s="198"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="98" t="s">
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="98" t="s">
+      <c r="L14" s="103"/>
+      <c r="M14" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="57" t="s">
+      <c r="O14" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="195">
+      <c r="A15" s="191">
         <v>1</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -16093,20 +16080,20 @@
       <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="195">
+      <c r="A16" s="191">
         <v>2</v>
       </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -16114,20 +16101,20 @@
       <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="195">
+      <c r="A17" s="191">
         <v>3</v>
       </c>
-      <c r="B17" s="203"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -16135,20 +16122,20 @@
       <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="195">
+      <c r="A18" s="191">
         <v>4</v>
       </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -16156,20 +16143,20 @@
       <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="195">
+      <c r="A19" s="191">
         <v>5</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="193"/>
+      <c r="L19" s="193"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -16177,20 +16164,20 @@
       <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="195">
+      <c r="A20" s="191">
         <v>6</v>
       </c>
-      <c r="B20" s="203"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="193"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -16198,20 +16185,20 @@
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="195">
+      <c r="A21" s="191">
         <v>7</v>
       </c>
-      <c r="B21" s="203"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="193"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -16219,20 +16206,20 @@
       <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="195">
+      <c r="A22" s="191">
         <v>8</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="193"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -16240,20 +16227,20 @@
       <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="195">
+      <c r="A23" s="191">
         <v>9</v>
       </c>
-      <c r="B23" s="203"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="201"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="193"/>
+      <c r="L23" s="193"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -16261,20 +16248,20 @@
       <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="195">
+      <c r="A24" s="191">
         <v>10</v>
       </c>
-      <c r="B24" s="203"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="193"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="193"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -16282,20 +16269,20 @@
       <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="195">
+      <c r="A25" s="191">
         <v>11</v>
       </c>
-      <c r="B25" s="203"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="193"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -16303,20 +16290,20 @@
       <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="195">
+      <c r="A26" s="191">
         <v>12</v>
       </c>
-      <c r="B26" s="203"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="193"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -16324,20 +16311,20 @@
       <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="195">
+      <c r="A27" s="191">
         <v>13</v>
       </c>
-      <c r="B27" s="203"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="193"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -16345,20 +16332,20 @@
       <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="195">
+      <c r="A28" s="191">
         <v>14</v>
       </c>
-      <c r="B28" s="203"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -16366,20 +16353,20 @@
       <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="195">
+      <c r="A29" s="191">
         <v>15</v>
       </c>
-      <c r="B29" s="203"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="193"/>
+      <c r="L29" s="193"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -16387,20 +16374,20 @@
       <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="195">
+      <c r="A30" s="191">
         <v>16</v>
       </c>
-      <c r="B30" s="203"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="201"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="201"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="193"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -16408,20 +16395,20 @@
       <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="195">
+      <c r="A31" s="191">
         <v>17</v>
       </c>
-      <c r="B31" s="203"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="201"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="193"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -16429,20 +16416,20 @@
       <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="195">
+      <c r="A32" s="191">
         <v>18</v>
       </c>
-      <c r="B32" s="203"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="201"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="201"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="193"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -16450,20 +16437,20 @@
       <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="195">
+      <c r="A33" s="191">
         <v>19</v>
       </c>
-      <c r="B33" s="203"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
+      <c r="B33" s="192"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="193"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -16471,20 +16458,20 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="195">
+      <c r="A34" s="191">
         <v>20</v>
       </c>
-      <c r="B34" s="203"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="201"/>
-      <c r="L34" s="201"/>
+      <c r="B34" s="192"/>
+      <c r="C34" s="193"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="193"/>
+      <c r="L34" s="193"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -16492,20 +16479,20 @@
       <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="195">
+      <c r="A35" s="191">
         <v>21</v>
       </c>
-      <c r="B35" s="203"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="201"/>
-      <c r="I35" s="201"/>
-      <c r="J35" s="202"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
+      <c r="B35" s="192"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="193"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -16513,20 +16500,20 @@
       <c r="Q35" s="60"/>
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="195">
+      <c r="A36" s="191">
         <v>22</v>
       </c>
-      <c r="B36" s="203"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="201"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="201"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="193"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -16534,20 +16521,20 @@
       <c r="Q36" s="60"/>
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="195">
+      <c r="A37" s="191">
         <v>23</v>
       </c>
-      <c r="B37" s="203"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="201"/>
-      <c r="L37" s="201"/>
+      <c r="B37" s="192"/>
+      <c r="C37" s="193"/>
+      <c r="D37" s="193"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="193"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="193"/>
+      <c r="I37" s="193"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -16555,20 +16542,20 @@
       <c r="Q37" s="60"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="195">
+      <c r="A38" s="191">
         <v>24</v>
       </c>
-      <c r="B38" s="203"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="201"/>
-      <c r="J38" s="202"/>
-      <c r="K38" s="201"/>
-      <c r="L38" s="201"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="193"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="193"/>
+      <c r="L38" s="193"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
@@ -16576,20 +16563,20 @@
       <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="195">
+      <c r="A39" s="191">
         <v>25</v>
       </c>
-      <c r="B39" s="203"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="201"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="193"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="193"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="193"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="193"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -16597,20 +16584,20 @@
       <c r="Q39" s="60"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="195">
+      <c r="A40" s="191">
         <v>26</v>
       </c>
-      <c r="B40" s="203"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="202"/>
-      <c r="K40" s="201"/>
-      <c r="L40" s="201"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="193"/>
+      <c r="L40" s="193"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -16618,20 +16605,20 @@
       <c r="Q40" s="60"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="195">
+      <c r="A41" s="191">
         <v>27</v>
       </c>
-      <c r="B41" s="203"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="201"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="193"/>
+      <c r="D41" s="193"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="193"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="193"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="193"/>
+      <c r="L41" s="193"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -16639,20 +16626,20 @@
       <c r="Q41" s="60"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="204">
+      <c r="A42" s="185">
         <v>28</v>
       </c>
-      <c r="B42" s="205"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="206"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="206"/>
-      <c r="L42" s="206"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="187"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -16672,19 +16659,19 @@
       <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="208"/>
-      <c r="B44" s="208"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="208"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="208"/>
-      <c r="K44" s="208"/>
-      <c r="L44" s="208"/>
-      <c r="M44" s="208"/>
+      <c r="A44" s="189"/>
+      <c r="B44" s="189"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="189"/>
+      <c r="F44" s="189"/>
+      <c r="G44" s="189"/>
+      <c r="H44" s="189"/>
+      <c r="I44" s="189"/>
+      <c r="J44" s="189"/>
+      <c r="K44" s="189"/>
+      <c r="L44" s="189"/>
+      <c r="M44" s="189"/>
       <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16711,99 +16698,202 @@
       <c r="A55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="71">
-        <f ca="1">TODAY()</f>
-        <v>44889</v>
-      </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="72" t="s">
+      <c r="H55" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="209" t="s">
+      <c r="I55" s="138"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="190"/>
+      <c r="L55" s="190"/>
+      <c r="M55" s="190"/>
+      <c r="N55" s="63"/>
+    </row>
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="L55" s="209"/>
-      <c r="M55" s="209"/>
-      <c r="N55" s="63"/>
-    </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
+      <c r="B57" s="134"/>
+      <c r="C57" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="174" t="s">
+      <c r="D57" s="143"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="174"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="67" t="s">
+      <c r="J57" s="134"/>
+      <c r="K57" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="J57" s="68"/>
-      <c r="K57" s="174" t="s">
-        <v>47</v>
-      </c>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="N57" s="210"/>
-      <c r="O57" s="210"/>
-      <c r="P57" s="210"/>
-      <c r="Q57" s="68"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" s="183"/>
+      <c r="O57" s="183"/>
+      <c r="P57" s="183"/>
+      <c r="Q57" s="134"/>
     </row>
     <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="134"/>
+      <c r="C58" s="144">
+        <v>44883</v>
+      </c>
+      <c r="D58" s="143"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="175">
+      <c r="J58" s="183"/>
+      <c r="K58" s="144">
         <v>44883</v>
       </c>
-      <c r="D58" s="174"/>
-      <c r="E58" s="179"/>
-      <c r="F58" s="180"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="210"/>
-      <c r="K58" s="175">
+      <c r="L58" s="143"/>
+      <c r="M58" s="135">
         <v>44883</v>
       </c>
-      <c r="L58" s="174"/>
-      <c r="M58" s="69">
-        <v>44883</v>
-      </c>
-      <c r="N58" s="211"/>
-      <c r="O58" s="211"/>
-      <c r="P58" s="211"/>
-      <c r="Q58" s="70"/>
+      <c r="N58" s="184"/>
+      <c r="O58" s="184"/>
+      <c r="P58" s="184"/>
+      <c r="Q58" s="136"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="146">
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:J5"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="G42:J42"/>
@@ -16820,125 +16910,17 @@
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="K41:L41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K1:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:J5"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:J42">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Missing">
@@ -16969,44 +16951,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="119"/>
+      <c r="A1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
+      <c r="A2" s="78"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9A1AF-A7F8-42C2-ACBE-03C6C33912B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6664ED-4B46-45F7-AC7C-6DB7CD7DEF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
@@ -1172,11 +1172,140 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1185,9 +1314,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,170 +1401,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1441,48 +1415,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1515,87 +1486,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1618,15 +1555,111 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{64167CAC-BD20-4D35-880E-5FE31ABC39EC}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1751,7 +1784,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>T</a:t>
+              <a:t>R</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7418,7 +7451,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-LI"/>
-              <a:t>R</a:t>
+              <a:t>T</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13541,7 +13574,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13562,24 +13595,24 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -13587,131 +13620,131 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="77">
-        <v>2</v>
-      </c>
-      <c r="D5" s="95" t="s">
+      <c r="B5" s="134"/>
+      <c r="C5" s="119">
+        <v>3</v>
+      </c>
+      <c r="D5" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
     </row>
     <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
     </row>
     <row r="7" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
     </row>
     <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H8" s="25"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
     </row>
     <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -13729,9 +13762,9 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -13768,113 +13801,113 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
     </row>
     <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="69" t="s">
+      <c r="I16" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67" t="s">
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="69" t="s">
+      <c r="I17" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69">
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110">
         <v>1</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -13920,10 +13953,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="98"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -13949,256 +13982,256 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="99" t="s">
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100" t="s">
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103" t="s">
+      <c r="H23" s="97"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100" t="s">
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="100"/>
-      <c r="O23" s="102"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="99"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="99" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100" t="s">
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103" t="s">
+      <c r="H24" s="97"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100" t="s">
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="100"/>
-      <c r="O24" s="102"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="99"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104">
+      <c r="A25" s="101">
         <v>365</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="104" t="s">
+      <c r="B25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109" t="s">
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="108"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="105"/>
     </row>
     <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="110">
+      <c r="A26" s="86">
         <v>405</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="110" t="s">
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="115" t="s">
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="114"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110">
+      <c r="A27" s="86">
         <v>436</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="116" t="s">
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117" t="s">
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="117"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="115" t="s">
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="114"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="110">
+      <c r="A28" s="86">
         <v>440</v>
       </c>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="110" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="119" t="s">
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117" t="s">
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="117"/>
-      <c r="O28" s="118"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="91"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110">
+      <c r="A29" s="86">
         <v>488</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="116" t="s">
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117" t="s">
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="117"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="115" t="s">
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="114"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="94"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="110">
+      <c r="A30" s="86">
         <v>530</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="116" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117" t="s">
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="117"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="115" t="s">
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="114"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="94"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110">
+      <c r="A31" s="86">
         <v>570</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="116" t="s">
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117" t="s">
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="117"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="115" t="s">
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="114"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="94"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120">
+      <c r="A32" s="74">
         <v>670</v>
       </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="123" t="s">
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124" t="s">
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="124"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="126" t="s">
+      <c r="H32" s="78"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="128"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="82"/>
     </row>
     <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -14320,55 +14353,55 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="129"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="129"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -14422,151 +14455,234 @@
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="132"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
     </row>
     <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="132"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
     </row>
     <row r="47" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
     </row>
     <row r="48" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="132"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="138" t="s">
+      <c r="H50" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
       <c r="O50" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="134"/>
-      <c r="C52" s="133" t="s">
+      <c r="B52" s="68"/>
+      <c r="C52" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="134"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="133" t="s">
+      <c r="J52" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="134"/>
-      <c r="L52" s="133" t="s">
+      <c r="K52" s="68"/>
+      <c r="L52" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="M52" s="134"/>
-      <c r="N52" s="133" t="s">
+      <c r="M52" s="68"/>
+      <c r="N52" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="O52" s="134"/>
+      <c r="O52" s="68"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="133" t="s">
+      <c r="A53" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="134"/>
-      <c r="C53" s="135">
+      <c r="B53" s="68"/>
+      <c r="C53" s="69">
         <v>44883</v>
       </c>
-      <c r="D53" s="136"/>
+      <c r="D53" s="70"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="133" t="s">
+      <c r="J53" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135">
+      <c r="K53" s="68"/>
+      <c r="L53" s="69">
         <v>44883</v>
       </c>
-      <c r="M53" s="136"/>
-      <c r="N53" s="135">
+      <c r="M53" s="70"/>
+      <c r="N53" s="69">
         <v>44883</v>
       </c>
-      <c r="O53" s="136"/>
+      <c r="O53" s="70"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="Q4:S11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A46:O46"/>
@@ -14585,122 +14701,39 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="Q4:S11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>ISBLANK($D17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G18 D15:G16">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
       <formula>ISBLANK($D15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:O17">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>ISBLANK($L15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:O27 M29:O32">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>ISBLANK($M25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:I25">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>ISBLANK($G$25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:I28">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>ISBLANK($G$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:I26">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>ISBLANK($G$26)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14719,7 +14752,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52:N52"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14748,24 +14781,24 @@
       <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -14773,64 +14806,64 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="77">
-        <v>2</v>
-      </c>
-      <c r="D5" s="95" t="s">
+      <c r="B5" s="134"/>
+      <c r="C5" s="119">
+        <v>3</v>
+      </c>
+      <c r="D5" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -14892,63 +14925,63 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
     </row>
     <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="164"/>
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
@@ -14985,31 +15018,31 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="164"/>
-      <c r="B16" s="164"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
     </row>
     <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -15117,38 +15150,38 @@
       <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="163"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
@@ -15163,26 +15196,26 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="166"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="166"/>
-      <c r="O28" s="166"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -15221,171 +15254,171 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="99" t="s">
+      <c r="B31" s="97"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="100"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="99" t="s">
+      <c r="E31" s="97"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="100"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103" t="s">
+      <c r="H31" s="97"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="100"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="167" t="s">
+      <c r="K31" s="97"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="168"/>
-      <c r="O31" s="169"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="159"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="99" t="s">
+      <c r="B32" s="97"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="100"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="173" t="s">
+      <c r="E32" s="97"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="174"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176" t="s">
+      <c r="H32" s="164"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="174"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="172"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="162"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161" t="str">
+      <c r="A33" s="167" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162" t="str">
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="182"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="149"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="153" t="str">
+      <c r="A34" s="150" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154" t="str">
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="152"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="143"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="str">
+      <c r="A35" s="150" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154" t="str">
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="152"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="143"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="153" t="str">
+      <c r="A36" s="150" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154" t="str">
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="152"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="143"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="158" t="str">
+      <c r="A37" s="172" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="141"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="141" t="str">
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="156"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="170"/>
     </row>
     <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
@@ -15400,9 +15433,9 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="146"/>
     </row>
     <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -15417,145 +15450,145 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="146"/>
+      <c r="O39" s="146"/>
     </row>
     <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="140"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="140"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
+      <c r="O40" s="141"/>
     </row>
     <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="140"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="140"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
     </row>
     <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="140"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="140"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="141"/>
     </row>
     <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="140"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="141"/>
     </row>
     <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="140"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
-      <c r="N44" s="140"/>
-      <c r="O44" s="140"/>
+      <c r="A44" s="141"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="141"/>
+      <c r="L44" s="141"/>
+      <c r="M44" s="141"/>
+      <c r="N44" s="141"/>
+      <c r="O44" s="141"/>
     </row>
     <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="140"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="140"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141"/>
+      <c r="L45" s="141"/>
+      <c r="M45" s="141"/>
+      <c r="N45" s="141"/>
+      <c r="O45" s="141"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="140"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="140"/>
-      <c r="O46" s="140"/>
+      <c r="A46" s="141"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="141"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="141"/>
+      <c r="M46" s="141"/>
+      <c r="N46" s="141"/>
+      <c r="O46" s="141"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="142"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="142"/>
-      <c r="N47" s="142"/>
-      <c r="O47" s="142"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="182"/>
+      <c r="L47" s="182"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="182"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
@@ -15582,80 +15615,156 @@
       <c r="A52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="138" t="s">
+      <c r="H52" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="139"/>
-      <c r="N52" s="139"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
       <c r="O52" s="36"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="143"/>
-      <c r="C54" s="143" t="s">
+      <c r="B54" s="174"/>
+      <c r="C54" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="143"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="143" t="s">
+      <c r="D54" s="174"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="K54" s="143"/>
-      <c r="L54" s="143" t="s">
+      <c r="K54" s="174"/>
+      <c r="L54" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="M54" s="143"/>
-      <c r="N54" s="143" t="s">
+      <c r="M54" s="174"/>
+      <c r="N54" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="O54" s="143"/>
+      <c r="O54" s="174"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="143" t="s">
+      <c r="A55" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="144">
+      <c r="B55" s="174"/>
+      <c r="C55" s="175">
         <v>44883</v>
       </c>
-      <c r="D55" s="143"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="143" t="s">
+      <c r="D55" s="174"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="143"/>
-      <c r="L55" s="144">
+      <c r="K55" s="174"/>
+      <c r="L55" s="175">
         <v>44883</v>
       </c>
-      <c r="M55" s="143"/>
-      <c r="N55" s="144">
+      <c r="M55" s="174"/>
+      <c r="N55" s="175">
         <v>44883</v>
       </c>
-      <c r="O55" s="143"/>
+      <c r="O55" s="174"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E54:I55"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M31:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A40:O40"/>
@@ -15672,88 +15781,12 @@
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M31:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula xml:space="preserve"> ISBLANK(G33)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="notBetween">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
@@ -15773,7 +15806,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55:M55"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15792,109 +15825,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
       <c r="O1" s="32"/>
       <c r="P1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
       <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="207"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="186"/>
       <c r="O3" s="65"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="77">
-        <v>2</v>
-      </c>
-      <c r="D4" s="210" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="119">
+        <v>3</v>
+      </c>
+      <c r="D4" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
       <c r="O4" s="65"/>
       <c r="P4" s="65"/>
       <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="208"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="50"/>
@@ -15924,23 +15957,23 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196" t="s">
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="196"/>
+      <c r="E9" s="190"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -15952,17 +15985,17 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="211">
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="191">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -15988,22 +16021,22 @@
       <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="196" t="s">
+      <c r="A12" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
@@ -16022,26 +16055,26 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198" t="s">
+      <c r="B14" s="193"/>
+      <c r="C14" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="101" t="s">
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="101" t="s">
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="103"/>
+      <c r="L14" s="100"/>
       <c r="M14" s="57" t="s">
         <v>47</v>
       </c>
@@ -16059,20 +16092,20 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="191">
+      <c r="A15" s="195">
         <v>1</v>
       </c>
-      <c r="B15" s="200"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -16080,20 +16113,20 @@
       <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="191">
+      <c r="A16" s="195">
         <v>2</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -16101,20 +16134,20 @@
       <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191">
+      <c r="A17" s="195">
         <v>3</v>
       </c>
-      <c r="B17" s="192"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -16122,20 +16155,20 @@
       <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191">
+      <c r="A18" s="195">
         <v>4</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -16143,20 +16176,20 @@
       <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="191">
+      <c r="A19" s="195">
         <v>5</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="193"/>
-      <c r="L19" s="193"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -16164,20 +16197,20 @@
       <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191">
+      <c r="A20" s="195">
         <v>6</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="193"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -16185,20 +16218,20 @@
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="191">
+      <c r="A21" s="195">
         <v>7</v>
       </c>
-      <c r="B21" s="192"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -16206,20 +16239,20 @@
       <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="191">
+      <c r="A22" s="195">
         <v>8</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -16227,20 +16260,20 @@
       <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="191">
+      <c r="A23" s="195">
         <v>9</v>
       </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="193"/>
-      <c r="L23" s="193"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="201"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -16248,20 +16281,20 @@
       <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="191">
+      <c r="A24" s="195">
         <v>10</v>
       </c>
-      <c r="B24" s="192"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="193"/>
-      <c r="L24" s="193"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -16269,20 +16302,20 @@
       <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="191">
+      <c r="A25" s="195">
         <v>11</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="193"/>
-      <c r="L25" s="193"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -16290,20 +16323,20 @@
       <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="191">
+      <c r="A26" s="195">
         <v>12</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -16311,20 +16344,20 @@
       <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="191">
+      <c r="A27" s="195">
         <v>13</v>
       </c>
-      <c r="B27" s="192"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -16332,20 +16365,20 @@
       <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="191">
+      <c r="A28" s="195">
         <v>14</v>
       </c>
-      <c r="B28" s="192"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -16353,20 +16386,20 @@
       <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="191">
+      <c r="A29" s="195">
         <v>15</v>
       </c>
-      <c r="B29" s="192"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="195"/>
-      <c r="K29" s="193"/>
-      <c r="L29" s="193"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -16374,20 +16407,20 @@
       <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="191">
+      <c r="A30" s="195">
         <v>16</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="193"/>
-      <c r="L30" s="193"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -16395,20 +16428,20 @@
       <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="191">
+      <c r="A31" s="195">
         <v>17</v>
       </c>
-      <c r="B31" s="192"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="195"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="193"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="201"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="201"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="202"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="201"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -16416,20 +16449,20 @@
       <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="191">
+      <c r="A32" s="195">
         <v>18</v>
       </c>
-      <c r="B32" s="192"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="195"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -16437,20 +16470,20 @@
       <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="191">
+      <c r="A33" s="195">
         <v>19</v>
       </c>
-      <c r="B33" s="192"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="195"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="193"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -16458,20 +16491,20 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="191">
+      <c r="A34" s="195">
         <v>20</v>
       </c>
-      <c r="B34" s="192"/>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="193"/>
-      <c r="L34" s="193"/>
+      <c r="B34" s="203"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="202"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="201"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -16479,20 +16512,20 @@
       <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="191">
+      <c r="A35" s="195">
         <v>21</v>
       </c>
-      <c r="B35" s="192"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="193"/>
-      <c r="L35" s="193"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="201"/>
+      <c r="J35" s="202"/>
+      <c r="K35" s="201"/>
+      <c r="L35" s="201"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -16500,20 +16533,20 @@
       <c r="Q35" s="60"/>
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="191">
+      <c r="A36" s="195">
         <v>22</v>
       </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="193"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="193"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
+      <c r="J36" s="202"/>
+      <c r="K36" s="201"/>
+      <c r="L36" s="201"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -16521,20 +16554,20 @@
       <c r="Q36" s="60"/>
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="191">
+      <c r="A37" s="195">
         <v>23</v>
       </c>
-      <c r="B37" s="192"/>
-      <c r="C37" s="193"/>
-      <c r="D37" s="193"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="195"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="193"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="201"/>
+      <c r="D37" s="201"/>
+      <c r="E37" s="201"/>
+      <c r="F37" s="201"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="201"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="201"/>
+      <c r="L37" s="201"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -16542,20 +16575,20 @@
       <c r="Q37" s="60"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="191">
+      <c r="A38" s="195">
         <v>24</v>
       </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="195"/>
-      <c r="K38" s="193"/>
-      <c r="L38" s="193"/>
+      <c r="B38" s="203"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="202"/>
+      <c r="K38" s="201"/>
+      <c r="L38" s="201"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
@@ -16563,20 +16596,20 @@
       <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="191">
+      <c r="A39" s="195">
         <v>25</v>
       </c>
-      <c r="B39" s="192"/>
-      <c r="C39" s="193"/>
-      <c r="D39" s="193"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="193"/>
-      <c r="L39" s="193"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="202"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="201"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -16584,20 +16617,20 @@
       <c r="Q39" s="60"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="191">
+      <c r="A40" s="195">
         <v>26</v>
       </c>
-      <c r="B40" s="192"/>
-      <c r="C40" s="193"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="195"/>
-      <c r="K40" s="193"/>
-      <c r="L40" s="193"/>
+      <c r="B40" s="203"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="202"/>
+      <c r="K40" s="201"/>
+      <c r="L40" s="201"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -16605,20 +16638,20 @@
       <c r="Q40" s="60"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="191">
+      <c r="A41" s="195">
         <v>27</v>
       </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="195"/>
-      <c r="K41" s="193"/>
-      <c r="L41" s="193"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="200"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="201"/>
+      <c r="L41" s="201"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -16626,20 +16659,20 @@
       <c r="Q41" s="60"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="185">
+      <c r="A42" s="204">
         <v>28</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="187"/>
-      <c r="L42" s="187"/>
+      <c r="B42" s="205"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="206"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
+      <c r="K42" s="206"/>
+      <c r="L42" s="206"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -16659,19 +16692,19 @@
       <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="189"/>
-      <c r="B44" s="189"/>
-      <c r="C44" s="189"/>
-      <c r="D44" s="189"/>
-      <c r="E44" s="189"/>
-      <c r="F44" s="189"/>
-      <c r="G44" s="189"/>
-      <c r="H44" s="189"/>
-      <c r="I44" s="189"/>
-      <c r="J44" s="189"/>
-      <c r="K44" s="189"/>
-      <c r="L44" s="189"/>
-      <c r="M44" s="189"/>
+      <c r="A44" s="208"/>
+      <c r="B44" s="208"/>
+      <c r="C44" s="208"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="208"/>
+      <c r="K44" s="208"/>
+      <c r="L44" s="208"/>
+      <c r="M44" s="208"/>
       <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16698,106 +16731,190 @@
       <c r="A55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="138" t="s">
+      <c r="H55" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="138"/>
-      <c r="J55" s="138"/>
-      <c r="K55" s="190"/>
-      <c r="L55" s="190"/>
-      <c r="M55" s="190"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
+      <c r="K55" s="209"/>
+      <c r="L55" s="209"/>
+      <c r="M55" s="209"/>
       <c r="N55" s="63"/>
     </row>
     <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="133" t="s">
+      <c r="A57" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="134"/>
-      <c r="C57" s="143" t="s">
+      <c r="B57" s="68"/>
+      <c r="C57" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="143"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="147"/>
-      <c r="I57" s="133" t="s">
+      <c r="D57" s="174"/>
+      <c r="E57" s="176"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="178"/>
+      <c r="I57" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="J57" s="134"/>
-      <c r="K57" s="143" t="s">
+      <c r="J57" s="68"/>
+      <c r="K57" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="L57" s="133"/>
-      <c r="M57" s="133" t="s">
+      <c r="L57" s="67"/>
+      <c r="M57" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="N57" s="183"/>
-      <c r="O57" s="183"/>
-      <c r="P57" s="183"/>
-      <c r="Q57" s="134"/>
+      <c r="N57" s="210"/>
+      <c r="O57" s="210"/>
+      <c r="P57" s="210"/>
+      <c r="Q57" s="68"/>
     </row>
     <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="133" t="s">
+      <c r="A58" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="134"/>
-      <c r="C58" s="144">
+      <c r="B58" s="68"/>
+      <c r="C58" s="175">
         <v>44883</v>
       </c>
-      <c r="D58" s="143"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="133" t="s">
+      <c r="D58" s="174"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="180"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="181"/>
+      <c r="I58" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="183"/>
-      <c r="K58" s="144">
+      <c r="J58" s="210"/>
+      <c r="K58" s="175">
         <v>44883</v>
       </c>
-      <c r="L58" s="143"/>
-      <c r="M58" s="135">
+      <c r="L58" s="174"/>
+      <c r="M58" s="69">
         <v>44883</v>
       </c>
-      <c r="N58" s="184"/>
-      <c r="O58" s="184"/>
-      <c r="P58" s="184"/>
-      <c r="Q58" s="136"/>
+      <c r="N58" s="211"/>
+      <c r="O58" s="211"/>
+      <c r="P58" s="211"/>
+      <c r="Q58" s="70"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="146">
-    <mergeCell ref="K1:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:J5"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:J18"/>
@@ -16814,117 +16931,33 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:J5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G15:J42">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Missing">
-      <formula>NOT(ISERROR(SEARCH("Missing",G15)))</formula>
+  <conditionalFormatting sqref="A15:Q42">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$G15="Missing"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0" top="0.51181102362204722" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -16940,7 +16973,7 @@
   <dimension ref="A1:L364"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16951,10 +16984,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
+      <c r="A1" s="119"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="120"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6664ED-4B46-45F7-AC7C-6DB7CD7DEF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A915C2-DE6D-4E9B-935B-CA5E5B82CDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
@@ -1626,46 +1626,11 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{64167CAC-BD20-4D35-880E-5FE31ABC39EC}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -1803,7 +1768,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="99000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1811,86 +1778,14 @@
             <c:symbol val="dash"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="12700">
+              <a:noFill/>
+              <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="25"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="65"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="96"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="148"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="190"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="230"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="330"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>Kurve!$B$4:$B$344</c:f>
@@ -2925,30 +2820,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Kurve!$I$4:$I$344</c:f>
+              <c:f>Kurve!$K$4:$K$364</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="341"/>
+                <c:ptCount val="361"/>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,40 +2850,13 @@
             <c:symbol val="dash"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:ln w="12700">
+              <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="148"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="190"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="230"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-5A65-4336-9F6E-57F0AF2650A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:numRef>
               <c:f>Kurve!$B$4:$B$344</c:f>
@@ -4035,18 +3891,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Kurve!$J$4:$J$344</c:f>
+              <c:f>Kurve!$L$4:$L$364</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="341"/>
-                <c:pt idx="148">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>90</c:v>
+                <c:ptCount val="361"/>
+                <c:pt idx="100">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10654,7 +10504,7 @@
             <c:symbol val="dash"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:ln w="12700">
+              <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="0070C0"/>
                 </a:solidFill>
@@ -11695,18 +11545,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Kurve!$K$4:$K$344</c:f>
+              <c:f>Kurve!$I$4:$I$364</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="341"/>
+                <c:ptCount val="361"/>
                 <c:pt idx="25">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="100">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11723,9 +11585,9 @@
           <c:order val="4"/>
           <c:marker>
             <c:symbol val="dash"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:ln w="12700">
+              <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="0070C0"/>
                 </a:solidFill>
@@ -12766,12 +12628,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Kurve!$L$4:$L$344</c:f>
+              <c:f>Kurve!$J$4:$J$364</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="341"/>
-                <c:pt idx="100">
-                  <c:v>40</c:v>
+                <c:ptCount val="361"/>
+                <c:pt idx="148">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13574,7 +13442,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14703,37 +14571,37 @@
     <mergeCell ref="A48:O48"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>ISBLANK($D17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G18 D15:G16">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>ISBLANK($D15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:O17">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>ISBLANK($L15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:O27 M29:O32">
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>ISBLANK($M25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:I25">
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>ISBLANK($G$25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:I28">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>ISBLANK($G$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:I26">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>ISBLANK($G$26)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15783,10 +15651,10 @@
     <mergeCell ref="A36:C36"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula xml:space="preserve"> ISBLANK(G33)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notBetween">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
@@ -16956,7 +16824,7 @@
     <mergeCell ref="E1:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:Q42">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G15="Missing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16973,7 +16841,7 @@
   <dimension ref="A1:L364"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A915C2-DE6D-4E9B-935B-CA5E5B82CDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B419590-B1ED-45F6-86D8-E2561C9244FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
@@ -1013,7 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyProtection="1">
@@ -1168,10 +1168,210 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1198,341 +1398,201 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1555,71 +1615,15 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13441,8 +13445,8 @@
   </sheetPr>
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13463,24 +13467,24 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -13488,131 +13492,131 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="119">
+      <c r="B5" s="91"/>
+      <c r="C5" s="76">
         <v>3</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="132"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
     </row>
     <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="H8" s="25"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
     </row>
     <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -13630,9 +13634,9 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -13669,113 +13673,113 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="112" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
     </row>
     <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="112" t="s">
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110">
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68">
         <v>1</v>
       </c>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
@@ -13821,10 +13825,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="111"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -13850,256 +13854,256 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="96" t="s">
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97" t="s">
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="97"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="100" t="s">
+      <c r="H23" s="99"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97" t="s">
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="97"/>
-      <c r="O23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="101"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="96" t="s">
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100" t="s">
+      <c r="H24" s="99"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97" t="s">
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="97"/>
-      <c r="O24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="101"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101">
+      <c r="A25" s="103">
         <v>365</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="101" t="s">
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106" t="s">
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="105"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="107"/>
     </row>
     <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86">
+      <c r="A26" s="109">
         <v>405</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="86" t="s">
+      <c r="B26" s="110"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="92" t="s">
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="113"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86">
+      <c r="A27" s="109">
         <v>436</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90" t="s">
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="92" t="s">
+      <c r="H27" s="116"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="113"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86">
+      <c r="A28" s="109">
         <v>440</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="86" t="s">
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="95" t="s">
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90" t="s">
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="90"/>
-      <c r="O28" s="91"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="117"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86">
+      <c r="A29" s="109">
         <v>488</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89" t="s">
+      <c r="B29" s="110"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90" t="s">
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92" t="s">
+      <c r="H29" s="116"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="94"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="113"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86">
+      <c r="A30" s="109">
         <v>530</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89" t="s">
+      <c r="B30" s="110"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90" t="s">
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92" t="s">
+      <c r="H30" s="116"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="94"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="113"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86">
+      <c r="A31" s="109">
         <v>570</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89" t="s">
+      <c r="B31" s="110"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90" t="s">
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="92" t="s">
+      <c r="H31" s="116"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="94"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="113"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74">
+      <c r="A32" s="119">
         <v>670</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77" t="s">
+      <c r="B32" s="120"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78" t="s">
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="80" t="s">
+      <c r="H32" s="123"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="82"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="127"/>
     </row>
     <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
@@ -14148,14 +14152,14 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15" t="s">
+      <c r="J35" s="211"/>
+      <c r="K35" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="L35" s="64" t="s">
+      <c r="L35" s="212" t="s">
         <v>83</v>
       </c>
       <c r="M35" s="14"/>
@@ -14221,55 +14225,55 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
+      <c r="A39" s="128"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="130"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="131"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -14323,234 +14327,151 @@
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="131"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="131"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="131"/>
     </row>
     <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
+      <c r="A46" s="131"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="131"/>
+      <c r="O46" s="131"/>
     </row>
     <row r="47" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="131"/>
     </row>
     <row r="48" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="72" t="s">
+      <c r="H50" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
       <c r="O50" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="67" t="s">
+      <c r="B52" s="133"/>
+      <c r="C52" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="68"/>
+      <c r="D52" s="133"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="67" t="s">
+      <c r="J52" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="68"/>
-      <c r="L52" s="67" t="s">
+      <c r="K52" s="133"/>
+      <c r="L52" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="M52" s="68"/>
-      <c r="N52" s="67" t="s">
+      <c r="M52" s="133"/>
+      <c r="N52" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="O52" s="68"/>
+      <c r="O52" s="133"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69">
+      <c r="B53" s="133"/>
+      <c r="C53" s="134">
         <v>44883</v>
       </c>
-      <c r="D53" s="70"/>
+      <c r="D53" s="135"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="67" t="s">
+      <c r="J53" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="68"/>
-      <c r="L53" s="69">
+      <c r="K53" s="133"/>
+      <c r="L53" s="134">
         <v>44883</v>
       </c>
-      <c r="M53" s="70"/>
-      <c r="N53" s="69">
+      <c r="M53" s="135"/>
+      <c r="N53" s="134">
         <v>44883</v>
       </c>
-      <c r="O53" s="70"/>
+      <c r="O53" s="135"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="Q4:S11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A46:O46"/>
@@ -14569,6 +14490,89 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="Q4:S11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
@@ -14619,7 +14623,7 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -14649,24 +14653,24 @@
       <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -14674,64 +14678,64 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="119">
+      <c r="B5" s="91"/>
+      <c r="C5" s="76">
         <v>3</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -14793,63 +14797,63 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="112" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
@@ -14886,31 +14890,31 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="155"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
     </row>
     <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -15018,38 +15022,38 @@
       <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="156"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
@@ -15064,26 +15068,26 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
+      <c r="A28" s="165"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -15122,171 +15126,171 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="96" t="s">
+      <c r="B31" s="99"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="96" t="s">
+      <c r="E31" s="99"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="97"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="100" t="s">
+      <c r="H31" s="99"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="97"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="157" t="s">
+      <c r="K31" s="99"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="158"/>
-      <c r="O31" s="159"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="168"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="96" t="s">
+      <c r="B32" s="99"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="163" t="s">
+      <c r="E32" s="99"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="166" t="s">
+      <c r="H32" s="173"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="164"/>
-      <c r="L32" s="165"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="162"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="171"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="167" t="str">
+      <c r="A33" s="160" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168" t="str">
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="149"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="181"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="150" t="str">
+      <c r="A34" s="152" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144" t="str">
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="143"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="151"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="str">
+      <c r="A35" s="152" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144" t="str">
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="142"/>
-      <c r="N35" s="142"/>
-      <c r="O35" s="143"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="151"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="150" t="str">
+      <c r="A36" s="152" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144" t="str">
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="142"/>
-      <c r="O36" s="143"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="151"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="172" t="str">
+      <c r="A37" s="157" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="173"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173" t="str">
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="170"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="155"/>
     </row>
     <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
@@ -15301,9 +15305,9 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="146"/>
+      <c r="M38" s="179"/>
+      <c r="N38" s="179"/>
+      <c r="O38" s="179"/>
     </row>
     <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -15318,145 +15322,145 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="146"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="179"/>
+      <c r="O39" s="179"/>
     </row>
     <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="141"/>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="141"/>
-      <c r="N40" s="141"/>
-      <c r="O40" s="141"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="139"/>
+      <c r="O40" s="139"/>
     </row>
     <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="141"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="141"/>
-      <c r="K41" s="141"/>
-      <c r="L41" s="141"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
-      <c r="O41" s="141"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="139"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="139"/>
+      <c r="O41" s="139"/>
     </row>
     <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="141"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="141"/>
+      <c r="A42" s="139"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="139"/>
     </row>
     <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="141"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="141"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="141"/>
+      <c r="A43" s="139"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="139"/>
     </row>
     <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="141"/>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="141"/>
-      <c r="K44" s="141"/>
-      <c r="L44" s="141"/>
-      <c r="M44" s="141"/>
-      <c r="N44" s="141"/>
-      <c r="O44" s="141"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="139"/>
+      <c r="O44" s="139"/>
     </row>
     <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="141"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
-      <c r="L45" s="141"/>
-      <c r="M45" s="141"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="141"/>
+      <c r="A45" s="139"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="139"/>
+      <c r="O45" s="139"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="141"/>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141"/>
-      <c r="L46" s="141"/>
-      <c r="M46" s="141"/>
-      <c r="N46" s="141"/>
-      <c r="O46" s="141"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="139"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="182"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="182"/>
-      <c r="J47" s="182"/>
-      <c r="K47" s="182"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="182"/>
-      <c r="O47" s="182"/>
+      <c r="A47" s="141"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="141"/>
+      <c r="J47" s="141"/>
+      <c r="K47" s="141"/>
+      <c r="L47" s="141"/>
+      <c r="M47" s="141"/>
+      <c r="N47" s="141"/>
+      <c r="O47" s="141"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
@@ -15483,126 +15487,110 @@
       <c r="A52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="72" t="s">
+      <c r="H52" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
       <c r="O52" s="36"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="174" t="s">
+      <c r="A54" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="174"/>
-      <c r="C54" s="174" t="s">
+      <c r="B54" s="142"/>
+      <c r="C54" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="174"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="177"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="174" t="s">
+      <c r="D54" s="142"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="K54" s="174"/>
-      <c r="L54" s="174" t="s">
+      <c r="K54" s="142"/>
+      <c r="L54" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="M54" s="174"/>
-      <c r="N54" s="174" t="s">
+      <c r="M54" s="142"/>
+      <c r="N54" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="O54" s="174"/>
+      <c r="O54" s="142"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="174" t="s">
+      <c r="A55" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="174"/>
-      <c r="C55" s="175">
+      <c r="B55" s="142"/>
+      <c r="C55" s="143">
         <v>44883</v>
       </c>
-      <c r="D55" s="174"/>
-      <c r="E55" s="179"/>
-      <c r="F55" s="180"/>
-      <c r="G55" s="180"/>
-      <c r="H55" s="180"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="174" t="s">
+      <c r="D55" s="142"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="174"/>
-      <c r="L55" s="175">
+      <c r="K55" s="142"/>
+      <c r="L55" s="143">
         <v>44883</v>
       </c>
-      <c r="M55" s="174"/>
-      <c r="N55" s="175">
+      <c r="M55" s="142"/>
+      <c r="N55" s="143">
         <v>44883</v>
       </c>
-      <c r="O55" s="174"/>
+      <c r="O55" s="142"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:O13"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="G31:I31"/>
@@ -15619,36 +15607,52 @@
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="J32:L32"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E54:I55"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -15693,109 +15697,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
       <c r="O1" s="32"/>
-      <c r="P1" s="65"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
       <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
       <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="119">
+      <c r="B4" s="91"/>
+      <c r="C4" s="76">
         <v>3</v>
       </c>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
       <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="208"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="50"/>
@@ -15825,23 +15829,23 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="190"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="190"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190" t="s">
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="190"/>
+      <c r="E9" s="195"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -15853,17 +15857,17 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="190"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="191">
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="210">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -15889,22 +15893,22 @@
       <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="190"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="195"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
@@ -15923,26 +15927,26 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193" t="s">
+      <c r="B14" s="197"/>
+      <c r="C14" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="98" t="s">
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="98" t="s">
+      <c r="H14" s="198"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="100"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="57" t="s">
         <v>47</v>
       </c>
@@ -15960,20 +15964,20 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="195">
+      <c r="A15" s="190">
         <v>1</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -15981,20 +15985,20 @@
       <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="195">
+      <c r="A16" s="190">
         <v>2</v>
       </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
+      <c r="B16" s="191"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -16002,20 +16006,20 @@
       <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="195">
+      <c r="A17" s="190">
         <v>3</v>
       </c>
-      <c r="B17" s="203"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -16023,20 +16027,20 @@
       <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="195">
+      <c r="A18" s="190">
         <v>4</v>
       </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="202"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -16044,20 +16048,20 @@
       <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="195">
+      <c r="A19" s="190">
         <v>5</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="201"/>
-      <c r="J19" s="202"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -16065,20 +16069,20 @@
       <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="195">
+      <c r="A20" s="190">
         <v>6</v>
       </c>
-      <c r="B20" s="203"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="202"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="192"/>
+      <c r="L20" s="192"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -16086,20 +16090,20 @@
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="195">
+      <c r="A21" s="190">
         <v>7</v>
       </c>
-      <c r="B21" s="203"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="201"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="192"/>
+      <c r="L21" s="192"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -16107,20 +16111,20 @@
       <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="195">
+      <c r="A22" s="190">
         <v>8</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -16128,20 +16132,20 @@
       <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="195">
+      <c r="A23" s="190">
         <v>9</v>
       </c>
-      <c r="B23" s="203"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="201"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="192"/>
+      <c r="L23" s="192"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -16149,20 +16153,20 @@
       <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="195">
+      <c r="A24" s="190">
         <v>10</v>
       </c>
-      <c r="B24" s="203"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="202"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="192"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -16170,20 +16174,20 @@
       <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="195">
+      <c r="A25" s="190">
         <v>11</v>
       </c>
-      <c r="B25" s="203"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="192"/>
+      <c r="L25" s="192"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -16191,20 +16195,20 @@
       <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="195">
+      <c r="A26" s="190">
         <v>12</v>
       </c>
-      <c r="B26" s="203"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="202"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="192"/>
+      <c r="L26" s="192"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -16212,20 +16216,20 @@
       <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="195">
+      <c r="A27" s="190">
         <v>13</v>
       </c>
-      <c r="B27" s="203"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="192"/>
+      <c r="L27" s="192"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -16233,20 +16237,20 @@
       <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="195">
+      <c r="A28" s="190">
         <v>14</v>
       </c>
-      <c r="B28" s="203"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -16254,20 +16258,20 @@
       <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="195">
+      <c r="A29" s="190">
         <v>15</v>
       </c>
-      <c r="B29" s="203"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="192"/>
+      <c r="L29" s="192"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -16275,20 +16279,20 @@
       <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="195">
+      <c r="A30" s="190">
         <v>16</v>
       </c>
-      <c r="B30" s="203"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="201"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="201"/>
-      <c r="I30" s="201"/>
-      <c r="J30" s="202"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="192"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -16296,20 +16300,20 @@
       <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="195">
+      <c r="A31" s="190">
         <v>17</v>
       </c>
-      <c r="B31" s="203"/>
-      <c r="C31" s="201"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="201"/>
-      <c r="I31" s="201"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="192"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -16317,20 +16321,20 @@
       <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="195">
+      <c r="A32" s="190">
         <v>18</v>
       </c>
-      <c r="B32" s="203"/>
-      <c r="C32" s="201"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="201"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="201"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="201"/>
-      <c r="L32" s="201"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="192"/>
+      <c r="L32" s="192"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -16338,20 +16342,20 @@
       <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="195">
+      <c r="A33" s="190">
         <v>19</v>
       </c>
-      <c r="B33" s="203"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="201"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="192"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -16359,20 +16363,20 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="195">
+      <c r="A34" s="190">
         <v>20</v>
       </c>
-      <c r="B34" s="203"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="202"/>
-      <c r="K34" s="201"/>
-      <c r="L34" s="201"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="192"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="192"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="192"/>
+      <c r="L34" s="192"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -16380,20 +16384,20 @@
       <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="195">
+      <c r="A35" s="190">
         <v>21</v>
       </c>
-      <c r="B35" s="203"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="201"/>
-      <c r="I35" s="201"/>
-      <c r="J35" s="202"/>
-      <c r="K35" s="201"/>
-      <c r="L35" s="201"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="192"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -16401,20 +16405,20 @@
       <c r="Q35" s="60"/>
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="195">
+      <c r="A36" s="190">
         <v>22</v>
       </c>
-      <c r="B36" s="203"/>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="201"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="201"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="201"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="192"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -16422,20 +16426,20 @@
       <c r="Q36" s="60"/>
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="195">
+      <c r="A37" s="190">
         <v>23</v>
       </c>
-      <c r="B37" s="203"/>
-      <c r="C37" s="201"/>
-      <c r="D37" s="201"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="201"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="201"/>
-      <c r="I37" s="201"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="201"/>
-      <c r="L37" s="201"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="192"/>
+      <c r="L37" s="192"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -16443,20 +16447,20 @@
       <c r="Q37" s="60"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="195">
+      <c r="A38" s="190">
         <v>24</v>
       </c>
-      <c r="B38" s="203"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="201"/>
-      <c r="I38" s="201"/>
-      <c r="J38" s="202"/>
-      <c r="K38" s="201"/>
-      <c r="L38" s="201"/>
+      <c r="B38" s="191"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="192"/>
+      <c r="L38" s="192"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
@@ -16464,20 +16468,20 @@
       <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="195">
+      <c r="A39" s="190">
         <v>25</v>
       </c>
-      <c r="B39" s="203"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="201"/>
-      <c r="E39" s="201"/>
-      <c r="F39" s="201"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="201"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="201"/>
-      <c r="L39" s="201"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="193"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="192"/>
+      <c r="L39" s="192"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -16485,20 +16489,20 @@
       <c r="Q39" s="60"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="195">
+      <c r="A40" s="190">
         <v>26</v>
       </c>
-      <c r="B40" s="203"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="201"/>
-      <c r="E40" s="201"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="201"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="202"/>
-      <c r="K40" s="201"/>
-      <c r="L40" s="201"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="192"/>
+      <c r="L40" s="192"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -16506,20 +16510,20 @@
       <c r="Q40" s="60"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="195">
+      <c r="A41" s="190">
         <v>27</v>
       </c>
-      <c r="B41" s="203"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="201"/>
+      <c r="B41" s="191"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="193"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="192"/>
+      <c r="L41" s="192"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -16527,20 +16531,20 @@
       <c r="Q41" s="60"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="204">
+      <c r="A42" s="184">
         <v>28</v>
       </c>
-      <c r="B42" s="205"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="207"/>
-      <c r="H42" s="206"/>
-      <c r="I42" s="206"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="206"/>
-      <c r="L42" s="206"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="186"/>
+      <c r="I42" s="186"/>
+      <c r="J42" s="186"/>
+      <c r="K42" s="186"/>
+      <c r="L42" s="186"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -16560,19 +16564,19 @@
       <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="208"/>
-      <c r="B44" s="208"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="208"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="208"/>
-      <c r="K44" s="208"/>
-      <c r="L44" s="208"/>
-      <c r="M44" s="208"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
       <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16599,94 +16603,202 @@
       <c r="A55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="72" t="s">
+      <c r="H55" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="209"/>
-      <c r="L55" s="209"/>
-      <c r="M55" s="209"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="189"/>
+      <c r="L55" s="189"/>
+      <c r="M55" s="189"/>
       <c r="N55" s="63"/>
     </row>
     <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="174" t="s">
+      <c r="B57" s="133"/>
+      <c r="C57" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="174"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="177"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="67" t="s">
+      <c r="D57" s="142"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="J57" s="68"/>
-      <c r="K57" s="174" t="s">
+      <c r="J57" s="133"/>
+      <c r="K57" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67" t="s">
+      <c r="L57" s="132"/>
+      <c r="M57" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="N57" s="210"/>
-      <c r="O57" s="210"/>
-      <c r="P57" s="210"/>
-      <c r="Q57" s="68"/>
+      <c r="N57" s="182"/>
+      <c r="O57" s="182"/>
+      <c r="P57" s="182"/>
+      <c r="Q57" s="133"/>
     </row>
     <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="175">
+      <c r="B58" s="133"/>
+      <c r="C58" s="143">
         <v>44883</v>
       </c>
-      <c r="D58" s="174"/>
-      <c r="E58" s="179"/>
-      <c r="F58" s="180"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="181"/>
-      <c r="I58" s="67" t="s">
+      <c r="D58" s="142"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="210"/>
-      <c r="K58" s="175">
+      <c r="J58" s="182"/>
+      <c r="K58" s="143">
         <v>44883</v>
       </c>
-      <c r="L58" s="174"/>
-      <c r="M58" s="69">
+      <c r="L58" s="142"/>
+      <c r="M58" s="134">
         <v>44883</v>
       </c>
-      <c r="N58" s="211"/>
-      <c r="O58" s="211"/>
-      <c r="P58" s="211"/>
-      <c r="Q58" s="70"/>
+      <c r="N58" s="183"/>
+      <c r="O58" s="183"/>
+      <c r="P58" s="183"/>
+      <c r="Q58" s="135"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="146">
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:J5"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="G42:J42"/>
@@ -16703,125 +16815,17 @@
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="K41:L41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K1:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:J5"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:Q42">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -16840,7 +16844,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -16852,10 +16856,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="119"/>
+      <c r="A1" s="76"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
+      <c r="A2" s="77"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace\public\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace-ssh\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B419590-B1ED-45F6-86D8-E2561C9244FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58312E09-7FB3-4C40-8281-86527C074E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CoA" sheetId="2" r:id="rId1"/>
@@ -1169,11 +1169,147 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1182,9 +1318,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1267,221 +1405,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,118 +1490,140 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7158,7 +7158,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
-        <c:crossesAt val="0"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7227,7 +7227,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
-        <c:minorUnit val="2"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13449,176 +13449,176 @@
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
-    <col min="4" max="15" width="5.6640625" style="1" customWidth="1"/>
-    <col min="16" max="21" width="10.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="10.88671875" style="1"/>
+    <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="21" width="10.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="33" customFormat="1" ht="4.2" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="33" customFormat="1" ht="5.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35"/>
       <c r="C1" s="33">
         <v>5070069</v>
       </c>
       <c r="V1" s="34"/>
     </row>
-    <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
+    <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="129"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-    </row>
-    <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+      <c r="Q4" s="133"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="76">
+      <c r="B5" s="136"/>
+      <c r="C5" s="121">
         <v>3</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-    </row>
-    <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+    </row>
+    <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-    </row>
-    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H8" s="25"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-    </row>
-    <row r="9" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-    </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-    </row>
-    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+    </row>
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+    </row>
+    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -13634,11 +13634,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-    </row>
-    <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+    </row>
+    <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -13655,7 +13655,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -13672,116 +13672,116 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="68" t="s">
+      <c r="I15" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-    </row>
-    <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-    </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+    </row>
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66" t="s">
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-    </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="68" t="s">
+      <c r="I18" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68">
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112">
         <v>1</v>
       </c>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-    </row>
-    <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+    </row>
+    <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -13798,7 +13798,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -13815,7 +13815,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
     </row>
-    <row r="21" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>15</v>
       </c>
@@ -13825,10 +13825,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="97" t="s">
+      <c r="H21" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="97"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -13836,7 +13836,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
     </row>
-    <row r="22" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -13853,7 +13853,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="98" t="s">
         <v>17</v>
       </c>
@@ -13880,7 +13880,7 @@
       <c r="N23" s="99"/>
       <c r="O23" s="101"/>
     </row>
-    <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="98" t="s">
         <v>20</v>
       </c>
@@ -13907,7 +13907,7 @@
       <c r="N24" s="99"/>
       <c r="O24" s="101"/>
     </row>
-    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="103">
         <v>365</v>
       </c>
@@ -13930,182 +13930,182 @@
       <c r="N25" s="106"/>
       <c r="O25" s="107"/>
     </row>
-    <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="109">
+    <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="88">
         <v>405</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="109" t="s">
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="114" t="s">
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="113"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="96"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
-    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109">
+    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="88">
         <v>436</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="115" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116" t="s">
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="114" t="s">
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="113"/>
-    </row>
-    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="109">
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="96"/>
+    </row>
+    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="88">
         <v>440</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="109" t="s">
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="118" t="s">
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116" t="s">
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="116"/>
-      <c r="O28" s="117"/>
-    </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="109">
+      <c r="N28" s="92"/>
+      <c r="O28" s="93"/>
+    </row>
+    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="88">
         <v>488</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="115" t="s">
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116" t="s">
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="114" t="s">
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="113"/>
-    </row>
-    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="109">
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="96"/>
+    </row>
+    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="88">
         <v>530</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="115" t="s">
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116" t="s">
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="114" t="s">
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="113"/>
-    </row>
-    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="109">
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="96"/>
+    </row>
+    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="88">
         <v>570</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="115" t="s">
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116" t="s">
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="114" t="s">
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="113"/>
-    </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="119">
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="96"/>
+    </row>
+    <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="76">
         <v>670</v>
       </c>
-      <c r="B32" s="120"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122" t="s">
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123" t="s">
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="125" t="s">
+      <c r="H32" s="80"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="127"/>
-    </row>
-    <row r="33" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="84"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -14122,7 +14122,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>34</v>
       </c>
@@ -14141,7 +14141,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>35</v>
       </c>
@@ -14152,21 +14152,21 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="213" t="s">
+      <c r="I35" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="211"/>
-      <c r="K35" s="213" t="s">
+      <c r="J35" s="65"/>
+      <c r="K35" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="L35" s="212" t="s">
+      <c r="L35" s="66" t="s">
         <v>83</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -14183,7 +14183,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -14200,7 +14200,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
@@ -14224,58 +14224,58 @@
       <c r="O38" s="11"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="128"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
+    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="130"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="131"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-    </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="131"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="131"/>
-      <c r="O41" s="131"/>
-    </row>
-    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+    </row>
+    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+    </row>
+    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -14292,7 +14292,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -14309,7 +14309,7 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -14326,152 +14326,235 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="131"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="131"/>
-      <c r="K45" s="131"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="131"/>
-      <c r="N45" s="131"/>
-      <c r="O45" s="131"/>
-    </row>
-    <row r="46" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="131"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="131"/>
-      <c r="J46" s="131"/>
-      <c r="K46" s="131"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="131"/>
-      <c r="N46" s="131"/>
-      <c r="O46" s="131"/>
-    </row>
-    <row r="47" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="131"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="131"/>
-      <c r="O47" s="131"/>
-    </row>
-    <row r="48" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="131"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="131"/>
-      <c r="L48" s="131"/>
-      <c r="M48" s="131"/>
-      <c r="N48" s="131"/>
-      <c r="O48" s="131"/>
-    </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+    </row>
+    <row r="47" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+    </row>
+    <row r="48" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+    </row>
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="137" t="s">
+      <c r="H50" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="137"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
       <c r="O50" s="9"/>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="132" t="s">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="133"/>
-      <c r="C52" s="132" t="s">
+      <c r="B52" s="70"/>
+      <c r="C52" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="133"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="132" t="s">
+      <c r="J52" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="133"/>
-      <c r="L52" s="132" t="s">
+      <c r="K52" s="70"/>
+      <c r="L52" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="M52" s="133"/>
-      <c r="N52" s="132" t="s">
+      <c r="M52" s="70"/>
+      <c r="N52" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="O52" s="133"/>
-    </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="132" t="s">
+      <c r="O52" s="70"/>
+    </row>
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="133"/>
-      <c r="C53" s="134">
+      <c r="B53" s="70"/>
+      <c r="C53" s="71">
         <v>44883</v>
       </c>
-      <c r="D53" s="135"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="132" t="s">
+      <c r="J53" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134">
+      <c r="K53" s="70"/>
+      <c r="L53" s="71">
         <v>44883</v>
       </c>
-      <c r="M53" s="135"/>
-      <c r="N53" s="134">
+      <c r="M53" s="72"/>
+      <c r="N53" s="71">
         <v>44883</v>
       </c>
-      <c r="O53" s="135"/>
-    </row>
-    <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="O53" s="72"/>
+    </row>
+    <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="Q4:S11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A46:O46"/>
@@ -14490,89 +14573,6 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="Q4:S11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
@@ -14627,15 +14627,15 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
-    <col min="4" max="15" width="5.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -14652,97 +14652,97 @@
       <c r="N1" s="46"/>
       <c r="O1" s="46"/>
     </row>
-    <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="129"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="76">
+      <c r="B5" s="136"/>
+      <c r="C5" s="121">
         <v>3</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+    <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
     </row>
-    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -14759,10 +14759,10 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -14779,7 +14779,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -14796,66 +14796,66 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-    </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+    </row>
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+    </row>
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -14872,7 +14872,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -14889,37 +14889,37 @@
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
     </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="157"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-    </row>
-    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="178"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-    </row>
-    <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="156"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+    </row>
+    <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -14936,7 +14936,7 @@
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -14953,7 +14953,7 @@
       <c r="N20" s="43"/>
       <c r="O20" s="43"/>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -14970,7 +14970,7 @@
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
     </row>
-    <row r="22" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -14987,7 +14987,7 @@
       <c r="N22" s="43"/>
       <c r="O22" s="43"/>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -15004,7 +15004,7 @@
       <c r="N23" s="43"/>
       <c r="O23" s="43"/>
     </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -15021,41 +15021,41 @@
       <c r="N24" s="43"/>
       <c r="O24" s="43"/>
     </row>
-    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="162"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-    </row>
-    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="162"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-    </row>
-    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="158"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+    </row>
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="158"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+    </row>
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -15068,28 +15068,28 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-    </row>
-    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="165"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
-      <c r="M28" s="165"/>
-      <c r="N28" s="165"/>
-      <c r="O28" s="165"/>
-    </row>
-    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+    </row>
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="142"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+    </row>
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
@@ -15108,7 +15108,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -15125,7 +15125,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="98" t="s">
         <v>18</v>
       </c>
@@ -15146,13 +15146,13 @@
       </c>
       <c r="K31" s="99"/>
       <c r="L31" s="101"/>
-      <c r="M31" s="166" t="s">
+      <c r="M31" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="167"/>
-      <c r="O31" s="168"/>
-    </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="160"/>
+      <c r="O31" s="161"/>
+    </row>
+    <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="98" t="s">
         <v>51</v>
       </c>
@@ -15163,136 +15163,136 @@
       </c>
       <c r="E32" s="99"/>
       <c r="F32" s="101"/>
-      <c r="G32" s="172" t="s">
+      <c r="G32" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="173"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175" t="s">
+      <c r="H32" s="166"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="173"/>
-      <c r="L32" s="174"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="171"/>
-    </row>
-    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="160" t="str">
+      <c r="K32" s="166"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="164"/>
+    </row>
+    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="169" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161" t="str">
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="181"/>
-    </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="151"/>
+    </row>
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="152" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153" t="str">
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="151"/>
-    </row>
-    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="145"/>
+    </row>
+    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="152" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153" t="str">
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="159"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="151"/>
-    </row>
-    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="145"/>
+    </row>
+    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="152" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153" t="str">
+      <c r="B36" s="146"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="159"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="151"/>
-    </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="157" t="str">
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="145"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="174" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140" t="str">
+      <c r="B37" s="175"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="154"/>
-      <c r="N37" s="154"/>
-      <c r="O37" s="155"/>
-    </row>
-    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="173"/>
+      <c r="L37" s="173"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="172"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
@@ -15305,11 +15305,11 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="179"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="179"/>
-    </row>
-    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="M38" s="148"/>
+      <c r="N38" s="148"/>
+      <c r="O38" s="148"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -15322,147 +15322,147 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-    </row>
-    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="139"/>
-      <c r="O40" s="139"/>
-    </row>
-    <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="139"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="139"/>
-      <c r="M41" s="139"/>
-      <c r="N41" s="139"/>
-      <c r="O41" s="139"/>
-    </row>
-    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="139"/>
-      <c r="N42" s="139"/>
-      <c r="O42" s="139"/>
-    </row>
-    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="139"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="139"/>
-    </row>
-    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="139"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="139"/>
-    </row>
-    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="139"/>
-      <c r="B45" s="139"/>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="139"/>
-      <c r="O45" s="139"/>
-    </row>
-    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="139"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="139"/>
-      <c r="O46" s="139"/>
-    </row>
-    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="141"/>
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="141"/>
-      <c r="J47" s="141"/>
-      <c r="K47" s="141"/>
-      <c r="L47" s="141"/>
-      <c r="M47" s="141"/>
-      <c r="N47" s="141"/>
-      <c r="O47" s="141"/>
-    </row>
-    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="148"/>
+      <c r="N39" s="148"/>
+      <c r="O39" s="148"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="143"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="143"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="143"/>
+      <c r="O40" s="143"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="143"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="143"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="143"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="143"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="143"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="143"/>
+      <c r="N43" s="143"/>
+      <c r="O43" s="143"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="143"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
+      <c r="J44" s="143"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="143"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
+      <c r="O44" s="143"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="143"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="143"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="143"/>
+    </row>
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="143"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="143"/>
+    </row>
+    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="184"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="184"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="184"/>
+      <c r="J47" s="184"/>
+      <c r="K47" s="184"/>
+      <c r="L47" s="184"/>
+      <c r="M47" s="184"/>
+      <c r="N47" s="184"/>
+      <c r="O47" s="184"/>
+    </row>
+    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -15479,88 +15479,164 @@
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
     </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="137" t="s">
+      <c r="H52" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="137"/>
-      <c r="L52" s="138"/>
-      <c r="M52" s="138"/>
-      <c r="N52" s="138"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="75"/>
       <c r="O52" s="36"/>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="142" t="s">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="142"/>
-      <c r="C54" s="142" t="s">
+      <c r="B54" s="176"/>
+      <c r="C54" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="142"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="142" t="s">
+      <c r="D54" s="176"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="179"/>
+      <c r="H54" s="179"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="K54" s="142"/>
-      <c r="L54" s="142" t="s">
+      <c r="K54" s="176"/>
+      <c r="L54" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="M54" s="142"/>
-      <c r="N54" s="142" t="s">
+      <c r="M54" s="176"/>
+      <c r="N54" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="O54" s="142"/>
-    </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="142" t="s">
+      <c r="O54" s="176"/>
+    </row>
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="142"/>
-      <c r="C55" s="143">
+      <c r="B55" s="176"/>
+      <c r="C55" s="177">
         <v>44883</v>
       </c>
-      <c r="D55" s="142"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="142" t="s">
+      <c r="D55" s="176"/>
+      <c r="E55" s="181"/>
+      <c r="F55" s="182"/>
+      <c r="G55" s="182"/>
+      <c r="H55" s="182"/>
+      <c r="I55" s="183"/>
+      <c r="J55" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="142"/>
-      <c r="L55" s="143">
+      <c r="K55" s="176"/>
+      <c r="L55" s="177">
         <v>44883</v>
       </c>
-      <c r="M55" s="142"/>
-      <c r="N55" s="143">
+      <c r="M55" s="176"/>
+      <c r="N55" s="177">
         <v>44883</v>
       </c>
-      <c r="O55" s="142"/>
+      <c r="O55" s="176"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E54:I55"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M31:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A40:O40"/>
@@ -15577,82 +15653,6 @@
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M31:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -15681,137 +15681,137 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
-    <col min="4" max="11" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.88671875" style="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="76" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
       <c r="O1" s="32"/>
       <c r="P1" s="64"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="64"/>
       <c r="P2" s="64"/>
       <c r="Q2" s="49"/>
     </row>
-    <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
       <c r="O3" s="64"/>
       <c r="P3" s="64"/>
       <c r="Q3" s="49"/>
     </row>
-    <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="76">
+      <c r="B4" s="136"/>
+      <c r="C4" s="121">
         <v>3</v>
       </c>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
       <c r="O4" s="64"/>
       <c r="P4" s="64"/>
       <c r="Q4" s="49"/>
     </row>
-    <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="207"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="208"/>
+    <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G6" s="26"/>
       <c r="H6" s="25"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>72</v>
       </c>
@@ -15828,24 +15828,24 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="192"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="195" t="s">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195" t="s">
+      <c r="B9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="195"/>
+      <c r="E9" s="192"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -15856,18 +15856,18 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="195" t="s">
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="192" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="210">
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="193">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -15876,7 +15876,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -15892,25 +15892,25 @@
       <c r="M11" s="54"/>
       <c r="N11" s="54"/>
     </row>
-    <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="195" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-    </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="192"/>
+      <c r="N12" s="192"/>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -15926,22 +15926,22 @@
       <c r="M13" s="56"/>
       <c r="N13" s="56"/>
     </row>
-    <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="196" t="s">
+    <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197" t="s">
+      <c r="B14" s="195"/>
+      <c r="C14" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
       <c r="G14" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
       <c r="J14" s="102"/>
       <c r="K14" s="100" t="s">
         <v>80</v>
@@ -15963,595 +15963,595 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="190">
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="197">
         <v>1</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="190">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="197">
         <v>2</v>
       </c>
-      <c r="B16" s="191"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="190">
+    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="197">
         <v>3</v>
       </c>
-      <c r="B17" s="191"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="60"/>
     </row>
-    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="190">
+    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="197">
         <v>4</v>
       </c>
-      <c r="B18" s="191"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="203"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="60"/>
     </row>
-    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="190">
+    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="197">
         <v>5</v>
       </c>
-      <c r="B19" s="191"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="60"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="190">
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="197">
         <v>6</v>
       </c>
-      <c r="B20" s="191"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="192"/>
+      <c r="B20" s="205"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="203"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="60"/>
     </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="190">
+    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="197">
         <v>7</v>
       </c>
-      <c r="B21" s="191"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="194"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
+      <c r="B21" s="205"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="203"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="190">
+    <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="197">
         <v>8</v>
       </c>
-      <c r="B22" s="191"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="190">
+    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="197">
         <v>9</v>
       </c>
-      <c r="B23" s="191"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="192"/>
-      <c r="L23" s="192"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="204"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="203"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="60"/>
     </row>
-    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="190">
+    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="197">
         <v>10</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="192"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="203"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
     </row>
-    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="190">
+    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="197">
         <v>11</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="194"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="192"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="203"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="60"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="190">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="197">
         <v>12</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="194"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="203"/>
+      <c r="L26" s="203"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="60"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="190">
+    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="197">
         <v>13</v>
       </c>
-      <c r="B27" s="191"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="194"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="203"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="190">
+    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="197">
         <v>14</v>
       </c>
-      <c r="B28" s="191"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="192"/>
-      <c r="L28" s="192"/>
+      <c r="B28" s="205"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="203"/>
+      <c r="L28" s="203"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="190">
+    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="197">
         <v>15</v>
       </c>
-      <c r="B29" s="191"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="203"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="60"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="190">
+    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="197">
         <v>16</v>
       </c>
-      <c r="B30" s="191"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="192"/>
-      <c r="L30" s="192"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="203"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="203"/>
+      <c r="L30" s="203"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="60"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="190">
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="197">
         <v>17</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="192"/>
-      <c r="L31" s="192"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="202"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="203"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="60"/>
     </row>
-    <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="190">
+    <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="197">
         <v>18</v>
       </c>
-      <c r="B32" s="191"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="192"/>
-      <c r="L32" s="192"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="203"/>
+      <c r="L32" s="203"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="60"/>
     </row>
-    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="190">
+    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="197">
         <v>19</v>
       </c>
-      <c r="B33" s="191"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="60"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="190">
+    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="197">
         <v>20</v>
       </c>
-      <c r="B34" s="191"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="192"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="203"/>
+      <c r="L34" s="203"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="60"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="190">
+    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="197">
         <v>21</v>
       </c>
-      <c r="B35" s="191"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="192"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="202"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="203"/>
+      <c r="L35" s="203"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="60"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="190">
+    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="197">
         <v>22</v>
       </c>
-      <c r="B36" s="191"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="202"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="203"/>
+      <c r="L36" s="203"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="60"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="190">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="197">
         <v>23</v>
       </c>
-      <c r="B37" s="191"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="192"/>
-      <c r="L37" s="192"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="202"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="203"/>
+      <c r="L37" s="203"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="60"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="190">
+    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="197">
         <v>24</v>
       </c>
-      <c r="B38" s="191"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="192"/>
-      <c r="L38" s="192"/>
+      <c r="B38" s="205"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="203"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="203"/>
+      <c r="L38" s="203"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="60"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="190">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="197">
         <v>25</v>
       </c>
-      <c r="B39" s="191"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="192"/>
-      <c r="L39" s="192"/>
+      <c r="B39" s="205"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="203"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="203"/>
+      <c r="L39" s="203"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="60"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="190">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="197">
         <v>26</v>
       </c>
-      <c r="B40" s="191"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="192"/>
-      <c r="L40" s="192"/>
+      <c r="B40" s="205"/>
+      <c r="C40" s="203"/>
+      <c r="D40" s="203"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="203"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="203"/>
+      <c r="I40" s="203"/>
+      <c r="J40" s="204"/>
+      <c r="K40" s="203"/>
+      <c r="L40" s="203"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="60"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="190">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="197">
         <v>27</v>
       </c>
-      <c r="B41" s="191"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="192"/>
-      <c r="L41" s="192"/>
+      <c r="B41" s="205"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="203"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="203"/>
+      <c r="L41" s="203"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
       <c r="P41" s="60"/>
       <c r="Q41" s="60"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="184">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="206">
         <v>28</v>
       </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="186"/>
-      <c r="L42" s="186"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="208"/>
+      <c r="G42" s="209"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="208"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="208"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
       <c r="P42" s="62"/>
       <c r="Q42" s="62"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
@@ -16563,23 +16563,23 @@
       <c r="M43" s="63"/>
       <c r="N43" s="63"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="188"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="188"/>
-      <c r="K44" s="188"/>
-      <c r="L44" s="188"/>
-      <c r="M44" s="188"/>
+    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="210"/>
+      <c r="B44" s="210"/>
+      <c r="C44" s="210"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="210"/>
+      <c r="F44" s="210"/>
+      <c r="G44" s="210"/>
+      <c r="H44" s="210"/>
+      <c r="I44" s="210"/>
+      <c r="J44" s="210"/>
+      <c r="K44" s="210"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="210"/>
       <c r="N44" s="63"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -16595,114 +16595,198 @@
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="137" t="s">
+      <c r="H55" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="137"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="189"/>
-      <c r="L55" s="189"/>
-      <c r="M55" s="189"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="211"/>
+      <c r="L55" s="211"/>
+      <c r="M55" s="211"/>
       <c r="N55" s="63"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="132" t="s">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="133"/>
-      <c r="C57" s="142" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="142"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="132" t="s">
+      <c r="D57" s="176"/>
+      <c r="E57" s="178"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="179"/>
+      <c r="H57" s="180"/>
+      <c r="I57" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="J57" s="133"/>
-      <c r="K57" s="142" t="s">
+      <c r="J57" s="70"/>
+      <c r="K57" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132" t="s">
+      <c r="L57" s="69"/>
+      <c r="M57" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="N57" s="182"/>
-      <c r="O57" s="182"/>
-      <c r="P57" s="182"/>
-      <c r="Q57" s="133"/>
-    </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="132" t="s">
+      <c r="N57" s="212"/>
+      <c r="O57" s="212"/>
+      <c r="P57" s="212"/>
+      <c r="Q57" s="70"/>
+    </row>
+    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="133"/>
-      <c r="C58" s="143">
+      <c r="B58" s="70"/>
+      <c r="C58" s="177">
         <v>44883</v>
       </c>
-      <c r="D58" s="142"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="148"/>
-      <c r="G58" s="148"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="132" t="s">
+      <c r="D58" s="176"/>
+      <c r="E58" s="181"/>
+      <c r="F58" s="182"/>
+      <c r="G58" s="182"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="182"/>
-      <c r="K58" s="143">
+      <c r="J58" s="212"/>
+      <c r="K58" s="177">
         <v>44883</v>
       </c>
-      <c r="L58" s="142"/>
-      <c r="M58" s="134">
+      <c r="L58" s="176"/>
+      <c r="M58" s="71">
         <v>44883</v>
       </c>
-      <c r="N58" s="183"/>
-      <c r="O58" s="183"/>
-      <c r="P58" s="183"/>
-      <c r="Q58" s="135"/>
+      <c r="N58" s="213"/>
+      <c r="O58" s="213"/>
+      <c r="P58" s="213"/>
+      <c r="Q58" s="72"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="146">
-    <mergeCell ref="K1:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:J5"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:J18"/>
@@ -16719,113 +16803,29 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:Q42">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -16845,23 +16845,23 @@
   <dimension ref="A1:L364"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.88671875" style="1"/>
+    <col min="1" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="121"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
@@ -16896,132 +16896,132 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>365</v>
       </c>
@@ -17032,202 +17032,202 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>374</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>375</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>379</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>383</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>384</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>387</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>391</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>392</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>393</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>395</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>396</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>402</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>405</v>
       </c>
@@ -17238,157 +17238,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>406</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>408</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>409</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>412</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>413</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>415</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>416</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>418</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>421</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>422</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>423</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>424</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>425</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>426</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <v>427</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <v>428</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <v>429</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <v>430</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <v>431</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <v>432</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>434</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>435</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>436</v>
       </c>
@@ -17396,22 +17396,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>437</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>438</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>439</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>440</v>
       </c>
@@ -17422,242 +17422,242 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>441</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>443</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>444</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <v>446</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>447</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>449</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>450</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>451</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>452</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>453</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <v>454</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>455</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>456</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <v>458</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <v>459</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <v>461</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>464</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>465</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>466</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <v>467</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <v>468</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
         <v>469</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
         <v>471</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="1">
         <v>472</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
         <v>473</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
         <v>474</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
         <v>475</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
         <v>476</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="1">
         <v>477</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
         <v>478</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
         <v>479</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
         <v>481</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
         <v>482</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
         <v>483</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
         <v>484</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
         <v>485</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
         <v>486</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
         <v>487</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
         <v>488</v>
       </c>
@@ -17668,212 +17668,212 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
         <v>489</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
         <v>491</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
         <v>492</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
         <v>493</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
         <v>494</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
         <v>495</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="1">
         <v>496</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="1">
         <v>497</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
         <v>498</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="1">
         <v>499</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="1">
         <v>501</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" s="1">
         <v>502</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="1">
         <v>506</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" s="1">
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" s="1">
         <v>508</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" s="1">
         <v>509</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" s="1">
         <v>510</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="1">
         <v>511</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="1">
         <v>513</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" s="1">
         <v>514</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" s="1">
         <v>516</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B181" s="1">
         <v>517</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B182" s="1">
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B183" s="1">
         <v>519</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="1">
         <v>521</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B186" s="1">
         <v>522</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B187" s="1">
         <v>523</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B188" s="1">
         <v>524</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B189" s="1">
         <v>525</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="1">
         <v>526</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" s="1">
         <v>527</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B192" s="1">
         <v>528</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B193" s="1">
         <v>529</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B194" s="1">
         <v>530</v>
       </c>
@@ -17884,202 +17884,202 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B195" s="1">
         <v>531</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B196" s="1">
         <v>532</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B197" s="1">
         <v>533</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B198" s="1">
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B199" s="1">
         <v>535</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B200" s="1">
         <v>536</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B201" s="1">
         <v>537</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B202" s="1">
         <v>538</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B203" s="1">
         <v>539</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B204" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B205" s="1">
         <v>541</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B206" s="1">
         <v>542</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B207" s="1">
         <v>543</v>
       </c>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B208" s="1">
         <v>544</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" s="1">
         <v>545</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" s="1">
         <v>546</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="1">
         <v>547</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="1">
         <v>548</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="1">
         <v>549</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B214" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B215" s="1">
         <v>551</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="1">
         <v>552</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="1">
         <v>553</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B218" s="1">
         <v>554</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B219" s="1">
         <v>555</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B220" s="1">
         <v>556</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B221" s="1">
         <v>557</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" s="1">
         <v>558</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B223" s="1">
         <v>559</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B224" s="1">
         <v>560</v>
       </c>
     </row>
-    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B225" s="1">
         <v>561</v>
       </c>
     </row>
-    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B226" s="1">
         <v>562</v>
       </c>
     </row>
-    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B227" s="1">
         <v>563</v>
       </c>
     </row>
-    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B228" s="1">
         <v>564</v>
       </c>
     </row>
-    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B229" s="1">
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B230" s="1">
         <v>566</v>
       </c>
     </row>
-    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B231" s="1">
         <v>567</v>
       </c>
     </row>
-    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B232" s="1">
         <v>568</v>
       </c>
     </row>
-    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B233" s="1">
         <v>569</v>
       </c>
     </row>
-    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B234" s="1">
         <v>570</v>
       </c>
@@ -18090,502 +18090,502 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B235" s="1">
         <v>571</v>
       </c>
     </row>
-    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B236" s="1">
         <v>572</v>
       </c>
     </row>
-    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B237" s="1">
         <v>573</v>
       </c>
     </row>
-    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B238" s="1">
         <v>574</v>
       </c>
     </row>
-    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B239" s="1">
         <v>575</v>
       </c>
     </row>
-    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B240" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B241" s="1">
         <v>577</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" s="1">
         <v>578</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B243" s="1">
         <v>579</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B244" s="1">
         <v>580</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B245" s="1">
         <v>581</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="1">
         <v>582</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="1">
         <v>583</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="1">
         <v>584</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="1">
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B250" s="1">
         <v>586</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B251" s="1">
         <v>587</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" s="1">
         <v>588</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" s="1">
         <v>589</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B254" s="1">
         <v>590</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" s="1">
         <v>591</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" s="1">
         <v>592</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" s="1">
         <v>593</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B258" s="1">
         <v>594</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B259" s="1">
         <v>595</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B260" s="1">
         <v>596</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B261" s="1">
         <v>597</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" s="1">
         <v>598</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B263" s="1">
         <v>599</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B264" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B265" s="1">
         <v>601</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B266" s="1">
         <v>602</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" s="1">
         <v>603</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B268" s="1">
         <v>604</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B269" s="1">
         <v>605</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B270" s="1">
         <v>606</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B271" s="1">
         <v>607</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" s="1">
         <v>608</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="1">
         <v>609</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" s="1">
         <v>611</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="1">
         <v>612</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" s="1">
         <v>613</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" s="1">
         <v>614</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" s="1">
         <v>615</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" s="1">
         <v>616</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281" s="1">
         <v>617</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" s="1">
         <v>618</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B283" s="1">
         <v>619</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" s="1">
         <v>620</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" s="1">
         <v>621</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B286" s="1">
         <v>622</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" s="1">
         <v>623</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B288" s="1">
         <v>624</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" s="1">
         <v>625</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290" s="1">
         <v>626</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B291" s="1">
         <v>627</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292" s="1">
         <v>628</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B293" s="1">
         <v>629</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" s="1">
         <v>630</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295" s="1">
         <v>631</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B296" s="1">
         <v>632</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B297" s="1">
         <v>633</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298" s="1">
         <v>634</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299" s="1">
         <v>635</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300" s="1">
         <v>636</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B301" s="1">
         <v>637</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" s="1">
         <v>638</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B303" s="1">
         <v>639</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" s="1">
         <v>640</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B305" s="1">
         <v>641</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B306" s="1">
         <v>642</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B307" s="1">
         <v>643</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B308" s="1">
         <v>644</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B309" s="1">
         <v>645</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B310" s="1">
         <v>646</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B311" s="1">
         <v>647</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B312" s="1">
         <v>648</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B313" s="1">
         <v>649</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314" s="1">
         <v>650</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B315" s="1">
         <v>651</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B316" s="1">
         <v>652</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B317" s="1">
         <v>653</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B318" s="1">
         <v>654</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B319" s="1">
         <v>655</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B320" s="1">
         <v>656</v>
       </c>
     </row>
-    <row r="321" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B321" s="1">
         <v>657</v>
       </c>
     </row>
-    <row r="322" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B322" s="1">
         <v>658</v>
       </c>
     </row>
-    <row r="323" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B323" s="1">
         <v>659</v>
       </c>
     </row>
-    <row r="324" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B324" s="1">
         <v>660</v>
       </c>
     </row>
-    <row r="325" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B325" s="1">
         <v>661</v>
       </c>
     </row>
-    <row r="326" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B326" s="1">
         <v>662</v>
       </c>
     </row>
-    <row r="327" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B327" s="1">
         <v>663</v>
       </c>
     </row>
-    <row r="328" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B328" s="1">
         <v>664</v>
       </c>
     </row>
-    <row r="329" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B329" s="1">
         <v>665</v>
       </c>
     </row>
-    <row r="330" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B330" s="1">
         <v>666</v>
       </c>
     </row>
-    <row r="331" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B331" s="1">
         <v>667</v>
       </c>
     </row>
-    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B332" s="1">
         <v>668</v>
       </c>
     </row>
-    <row r="333" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B333" s="1">
         <v>669</v>
       </c>
     </row>
-    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B334" s="1">
         <v>670</v>
       </c>
@@ -18593,152 +18593,152 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B335" s="1">
         <v>671</v>
       </c>
     </row>
-    <row r="336" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B336" s="1">
         <v>672</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337" s="1">
         <v>673</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B338" s="1">
         <v>674</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B339" s="1">
         <v>675</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B340" s="1">
         <v>676</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B341" s="1">
         <v>677</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B342" s="1">
         <v>678</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B343" s="1">
         <v>679</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B344" s="1">
         <v>680</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B345" s="1">
         <v>681</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B346" s="1">
         <v>682</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B347" s="1">
         <v>683</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B348" s="1">
         <v>684</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B349" s="1">
         <v>685</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B350" s="1">
         <v>686</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B351" s="1">
         <v>687</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B352" s="1">
         <v>688</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B353" s="1">
         <v>689</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B354" s="1">
         <v>690</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B355" s="1">
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B356" s="1">
         <v>692</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B357" s="1">
         <v>693</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B358" s="1">
         <v>694</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B359" s="1">
         <v>695</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B360" s="1">
         <v>696</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B361" s="1">
         <v>697</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B362" s="1">
         <v>698</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B363" s="1">
         <v>699</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B364" s="1">
         <v>700</v>
       </c>

--- a/public/media/CofA_Template_n.xlsx
+++ b/public/media/CofA_Template_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25156\PhpstormProjects\producttrace-ssh\public\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58312E09-7FB3-4C40-8281-86527C074E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE5D7E-C8D3-4EE4-AF4C-C5BB55D72355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93055F11-7CE4-4BB1-A1C7-628D476EC6EA}"/>
   </bookViews>
@@ -20,10 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CoA!$B$1:$B$28</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">CoA!$C$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Chrom!$A$1:$O$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">CoA!$A$1:$O$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Position!$A$1:$O$58</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">CoA!$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1176,6 +1176,209 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1202,341 +1405,201 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,75 +1622,12 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{64167CAC-BD20-4D35-880E-5FE31ABC39EC}"/>
   </cellStyles>
   <dxfs count="10">
@@ -1731,7 +1731,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7141,7 +7141,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" vert="horz" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -7283,7 +7283,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12701,7 +12701,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="-5400000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -13144,7 +13144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13446,10 +13446,10 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
@@ -13467,24 +13467,24 @@
       <c r="V1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -13492,131 +13492,131 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="129"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="121">
+      <c r="B5" s="94"/>
+      <c r="C5" s="79">
         <v>3</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
     </row>
     <row r="6" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="28"/>
       <c r="O6" s="27"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G7" s="26"/>
       <c r="H7" s="25"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="H8" s="25"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
@@ -13634,9 +13634,9 @@
       <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
@@ -13673,113 +13673,113 @@
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="114" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="112" t="s">
+      <c r="I16" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="114" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="112" t="s">
+      <c r="I18" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112">
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71">
         <v>1</v>
       </c>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
     </row>
     <row r="19" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
@@ -13825,10 +13825,10 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="113" t="s">
+      <c r="H21" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="113"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -13854,256 +13854,256 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="98" t="s">
+      <c r="B23" s="102"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99" t="s">
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="99"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102" t="s">
+      <c r="H23" s="102"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99" t="s">
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="101"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="104"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="98" t="s">
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99" t="s">
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102" t="s">
+      <c r="H24" s="102"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99" t="s">
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="99"/>
-      <c r="O24" s="101"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="104"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="103">
+      <c r="A25" s="106">
         <v>365</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="103" t="s">
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="108" t="s">
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="110"/>
     </row>
     <row r="26" spans="1:22" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88">
+      <c r="A26" s="112">
         <v>405</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="88" t="s">
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="94" t="s">
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="96"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="116"/>
       <c r="U26" s="1"/>
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="88">
+      <c r="A27" s="112">
         <v>436</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91" t="s">
+      <c r="B27" s="113"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92" t="s">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94" t="s">
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="96"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="116"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88">
+      <c r="A28" s="112">
         <v>440</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="88" t="s">
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97" t="s">
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92" t="s">
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="92"/>
-      <c r="O28" s="93"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="120"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88">
+      <c r="A29" s="112">
         <v>488</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91" t="s">
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92" t="s">
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94" t="s">
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="96"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="116"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="88">
+      <c r="A30" s="112">
         <v>530</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91" t="s">
+      <c r="B30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92" t="s">
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94" t="s">
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="96"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="116"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="88">
+      <c r="A31" s="112">
         <v>570</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91" t="s">
+      <c r="B31" s="113"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92" t="s">
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94" t="s">
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="96"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="116"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76">
+      <c r="A32" s="122">
         <v>670</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79" t="s">
+      <c r="B32" s="123"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80" t="s">
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="80"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82" t="s">
+      <c r="H32" s="126"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="84"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="130"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -14225,55 +14225,55 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="134"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="134"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
@@ -14327,234 +14327,151 @@
       <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="134"/>
+      <c r="M45" s="134"/>
+      <c r="N45" s="134"/>
+      <c r="O45" s="134"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="134"/>
     </row>
     <row r="47" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="134"/>
+      <c r="M47" s="134"/>
+      <c r="N47" s="134"/>
+      <c r="O47" s="134"/>
     </row>
     <row r="48" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
+      <c r="A48" s="134"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
+      <c r="N48" s="134"/>
+      <c r="O48" s="134"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="74" t="s">
+      <c r="H50" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="141"/>
+      <c r="N50" s="141"/>
       <c r="O50" s="9"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="69" t="s">
+      <c r="B52" s="136"/>
+      <c r="C52" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="70"/>
+      <c r="D52" s="136"/>
       <c r="E52" s="8"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="69" t="s">
+      <c r="J52" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="70"/>
-      <c r="L52" s="69" t="s">
+      <c r="K52" s="136"/>
+      <c r="L52" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="M52" s="70"/>
-      <c r="N52" s="69" t="s">
+      <c r="M52" s="136"/>
+      <c r="N52" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="O52" s="70"/>
+      <c r="O52" s="136"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="71">
+      <c r="B53" s="136"/>
+      <c r="C53" s="137">
         <v>44883</v>
       </c>
-      <c r="D53" s="72"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="69" t="s">
+      <c r="J53" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="K53" s="70"/>
-      <c r="L53" s="71">
+      <c r="K53" s="136"/>
+      <c r="L53" s="137">
         <v>44883</v>
       </c>
-      <c r="M53" s="72"/>
-      <c r="N53" s="71">
+      <c r="M53" s="138"/>
+      <c r="N53" s="137">
         <v>44883</v>
       </c>
-      <c r="O53" s="72"/>
+      <c r="O53" s="138"/>
     </row>
     <row r="54" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="Q4:S11"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:O10"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A45:O45"/>
     <mergeCell ref="A46:O46"/>
@@ -14573,6 +14490,89 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="Q4:S11"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:G17">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
@@ -14627,7 +14627,7 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
@@ -14653,24 +14653,24 @@
       <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -14678,64 +14678,64 @@
       <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="129"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
       <c r="N3" s="26"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
       <c r="N4" s="26"/>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="121">
+      <c r="B5" s="94"/>
+      <c r="C5" s="79">
         <v>3</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="N5" s="26"/>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
@@ -14797,63 +14797,63 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="114" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="112" t="s">
+      <c r="I12" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="157"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
@@ -14890,31 +14890,31 @@
       <c r="O15" s="42"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="157"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="156"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
@@ -15022,38 +15022,38 @@
       <c r="O24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="158"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="158"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
@@ -15068,26 +15068,26 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
+      <c r="M27" s="165"/>
+      <c r="N27" s="165"/>
+      <c r="O27" s="165"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="142"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
+      <c r="A28" s="168"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="168"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="168"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
@@ -15126,171 +15126,171 @@
       <c r="O30" s="15"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="98" t="s">
+      <c r="B31" s="102"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="98" t="s">
+      <c r="E31" s="102"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="99"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="102" t="s">
+      <c r="H31" s="102"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="99"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="159" t="s">
+      <c r="K31" s="102"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="160"/>
-      <c r="O31" s="161"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="171"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="98" t="s">
+      <c r="B32" s="102"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="165" t="s">
+      <c r="E32" s="102"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="166"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="168" t="s">
+      <c r="H32" s="176"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="166"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="164"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="174"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="169" t="str">
+      <c r="A33" s="163" t="str">
         <f>IF(G33&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170" t="str">
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164" t="str">
         <f>IF(G33&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="151"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="184"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="152" t="str">
+      <c r="A34" s="155" t="str">
         <f>IF(G34&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146" t="str">
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156" t="str">
         <f>IF(G34&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="145"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="162"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="153"/>
+      <c r="O34" s="154"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="152" t="str">
+      <c r="A35" s="155" t="str">
         <f>IF(G35&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146" t="str">
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156" t="str">
         <f>IF(G35&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="145"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="154"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="152" t="str">
+      <c r="A36" s="155" t="str">
         <f>IF(G36&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B36" s="146"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146" t="str">
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156" t="str">
         <f>IF(G36&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="145"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="154"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="174" t="str">
+      <c r="A37" s="160" t="str">
         <f>IF(G37&lt;&gt;"",5,"")</f>
         <v/>
       </c>
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175" t="str">
+      <c r="B37" s="143"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="143" t="str">
         <f>IF(G37&lt;&gt;"","±1.0","")</f>
         <v/>
       </c>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="173"/>
-      <c r="L37" s="173"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="171"/>
-      <c r="O37" s="172"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="159"/>
+      <c r="L37" s="159"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="158"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="38"/>
@@ -15305,9 +15305,9 @@
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="148"/>
-      <c r="N38" s="148"/>
-      <c r="O38" s="148"/>
+      <c r="M38" s="182"/>
+      <c r="N38" s="182"/>
+      <c r="O38" s="182"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
@@ -15322,145 +15322,145 @@
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
-      <c r="M39" s="148"/>
-      <c r="N39" s="148"/>
-      <c r="O39" s="148"/>
+      <c r="M39" s="182"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="182"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="143"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="143"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="143"/>
-      <c r="N40" s="143"/>
-      <c r="O40" s="143"/>
+      <c r="A40" s="142"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="142"/>
+      <c r="N40" s="142"/>
+      <c r="O40" s="142"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="143"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="143"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="143"/>
-      <c r="N41" s="143"/>
-      <c r="O41" s="143"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
+      <c r="K41" s="142"/>
+      <c r="L41" s="142"/>
+      <c r="M41" s="142"/>
+      <c r="N41" s="142"/>
+      <c r="O41" s="142"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="143"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
-      <c r="K42" s="143"/>
-      <c r="L42" s="143"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
-      <c r="O42" s="143"/>
+      <c r="A42" s="142"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="142"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="143"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="143"/>
-      <c r="N43" s="143"/>
-      <c r="O43" s="143"/>
+      <c r="A43" s="142"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="142"/>
+      <c r="O43" s="142"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="143"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143"/>
-      <c r="L44" s="143"/>
-      <c r="M44" s="143"/>
-      <c r="N44" s="143"/>
-      <c r="O44" s="143"/>
+      <c r="A44" s="142"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="142"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="143"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143"/>
-      <c r="N45" s="143"/>
-      <c r="O45" s="143"/>
+      <c r="A45" s="142"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="142"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="142"/>
+      <c r="M45" s="142"/>
+      <c r="N45" s="142"/>
+      <c r="O45" s="142"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="143"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="143"/>
-      <c r="M46" s="143"/>
-      <c r="N46" s="143"/>
-      <c r="O46" s="143"/>
+      <c r="A46" s="142"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
+      <c r="K46" s="142"/>
+      <c r="L46" s="142"/>
+      <c r="M46" s="142"/>
+      <c r="N46" s="142"/>
+      <c r="O46" s="142"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="184"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184"/>
-      <c r="H47" s="184"/>
-      <c r="I47" s="184"/>
-      <c r="J47" s="184"/>
-      <c r="K47" s="184"/>
-      <c r="L47" s="184"/>
-      <c r="M47" s="184"/>
-      <c r="N47" s="184"/>
-      <c r="O47" s="184"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
+      <c r="O47" s="144"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
@@ -15487,126 +15487,110 @@
       <c r="A52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="74" t="s">
+      <c r="H52" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="140"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
       <c r="O52" s="36"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="176" t="s">
+      <c r="A54" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176" t="s">
+      <c r="B54" s="145"/>
+      <c r="C54" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="176"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="179"/>
-      <c r="H54" s="179"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="176" t="s">
+      <c r="D54" s="145"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="149"/>
+      <c r="J54" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176" t="s">
+      <c r="K54" s="145"/>
+      <c r="L54" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="M54" s="176"/>
-      <c r="N54" s="176" t="s">
+      <c r="M54" s="145"/>
+      <c r="N54" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="O54" s="176"/>
+      <c r="O54" s="145"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="176" t="s">
+      <c r="A55" s="145" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="176"/>
-      <c r="C55" s="177">
+      <c r="B55" s="145"/>
+      <c r="C55" s="146">
         <v>44883</v>
       </c>
-      <c r="D55" s="176"/>
-      <c r="E55" s="181"/>
-      <c r="F55" s="182"/>
-      <c r="G55" s="182"/>
-      <c r="H55" s="182"/>
-      <c r="I55" s="183"/>
-      <c r="J55" s="176" t="s">
+      <c r="D55" s="145"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="151"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="176"/>
-      <c r="L55" s="177">
+      <c r="K55" s="145"/>
+      <c r="L55" s="146">
         <v>44883</v>
       </c>
-      <c r="M55" s="176"/>
-      <c r="N55" s="177">
+      <c r="M55" s="145"/>
+      <c r="N55" s="146">
         <v>44883</v>
       </c>
-      <c r="O55" s="176"/>
+      <c r="O55" s="145"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:J6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="L13:O13"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="G31:I31"/>
@@ -15623,36 +15607,52 @@
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="J32:L32"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:J6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E54:I55"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="G33:L37">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -15681,7 +15681,7 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
@@ -15697,109 +15697,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
       <c r="O1" s="32"/>
       <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
       <c r="O2" s="64"/>
       <c r="P2" s="64"/>
       <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
       <c r="O3" s="64"/>
       <c r="P3" s="64"/>
       <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="121">
+      <c r="B4" s="94"/>
+      <c r="C4" s="79">
         <v>3</v>
       </c>
-      <c r="D4" s="191" t="s">
+      <c r="D4" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
       <c r="O4" s="64"/>
       <c r="P4" s="64"/>
       <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="50"/>
@@ -15829,23 +15829,23 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="192"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="192"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192" t="s">
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="192"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -15857,17 +15857,17 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="193">
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="213">
         <v>44874.713634259257</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -15893,22 +15893,22 @@
       <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="192"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
@@ -15927,26 +15927,26 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="195"/>
-      <c r="C14" s="195" t="s">
+      <c r="B14" s="200"/>
+      <c r="C14" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="195"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="100" t="s">
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="100" t="s">
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="102"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="57" t="s">
         <v>47</v>
       </c>
@@ -15964,20 +15964,20 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="197">
+      <c r="A15" s="193">
         <v>1</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="203"/>
-      <c r="L15" s="203"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="195"/>
       <c r="M15" s="59"/>
       <c r="N15" s="60"/>
       <c r="O15" s="60"/>
@@ -15985,20 +15985,20 @@
       <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="197">
+      <c r="A16" s="193">
         <v>2</v>
       </c>
-      <c r="B16" s="205"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="195"/>
       <c r="M16" s="59"/>
       <c r="N16" s="60"/>
       <c r="O16" s="60"/>
@@ -16006,20 +16006,20 @@
       <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="197">
+      <c r="A17" s="193">
         <v>3</v>
       </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
@@ -16027,20 +16027,20 @@
       <c r="Q17" s="60"/>
     </row>
     <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="197">
+      <c r="A18" s="193">
         <v>4</v>
       </c>
-      <c r="B18" s="205"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="195"/>
+      <c r="L18" s="195"/>
       <c r="M18" s="59"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
@@ -16048,20 +16048,20 @@
       <c r="Q18" s="60"/>
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="197">
+      <c r="A19" s="193">
         <v>5</v>
       </c>
-      <c r="B19" s="205"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="195"/>
+      <c r="L19" s="195"/>
       <c r="M19" s="59"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
@@ -16069,20 +16069,20 @@
       <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="197">
+      <c r="A20" s="193">
         <v>6</v>
       </c>
-      <c r="B20" s="205"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="195"/>
+      <c r="L20" s="195"/>
       <c r="M20" s="59"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
@@ -16090,20 +16090,20 @@
       <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="197">
+      <c r="A21" s="193">
         <v>7</v>
       </c>
-      <c r="B21" s="205"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="195"/>
+      <c r="L21" s="195"/>
       <c r="M21" s="59"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
@@ -16111,20 +16111,20 @@
       <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="197">
+      <c r="A22" s="193">
         <v>8</v>
       </c>
-      <c r="B22" s="205"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="203"/>
-      <c r="L22" s="203"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
       <c r="M22" s="59"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
@@ -16132,20 +16132,20 @@
       <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="197">
+      <c r="A23" s="193">
         <v>9</v>
       </c>
-      <c r="B23" s="205"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="203"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
       <c r="M23" s="59"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
@@ -16153,20 +16153,20 @@
       <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="197">
+      <c r="A24" s="193">
         <v>10</v>
       </c>
-      <c r="B24" s="205"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="203"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="195"/>
+      <c r="L24" s="195"/>
       <c r="M24" s="59"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
@@ -16174,20 +16174,20 @@
       <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="197">
+      <c r="A25" s="193">
         <v>11</v>
       </c>
-      <c r="B25" s="205"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="203"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="195"/>
       <c r="M25" s="59"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
@@ -16195,20 +16195,20 @@
       <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="197">
+      <c r="A26" s="193">
         <v>12</v>
       </c>
-      <c r="B26" s="205"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="204"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="195"/>
       <c r="M26" s="59"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
@@ -16216,20 +16216,20 @@
       <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="197">
+      <c r="A27" s="193">
         <v>13</v>
       </c>
-      <c r="B27" s="205"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="204"/>
-      <c r="K27" s="203"/>
-      <c r="L27" s="203"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
       <c r="M27" s="59"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
@@ -16237,20 +16237,20 @@
       <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="197">
+      <c r="A28" s="193">
         <v>14</v>
       </c>
-      <c r="B28" s="205"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="203"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="203"/>
-      <c r="L28" s="203"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
       <c r="M28" s="59"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
@@ -16258,20 +16258,20 @@
       <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="197">
+      <c r="A29" s="193">
         <v>15</v>
       </c>
-      <c r="B29" s="205"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="203"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
@@ -16279,20 +16279,20 @@
       <c r="Q29" s="60"/>
     </row>
     <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="197">
+      <c r="A30" s="193">
         <v>16</v>
       </c>
-      <c r="B30" s="205"/>
-      <c r="C30" s="203"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="203"/>
-      <c r="L30" s="203"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="195"/>
       <c r="M30" s="59"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
@@ -16300,20 +16300,20 @@
       <c r="Q30" s="60"/>
     </row>
     <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="197">
+      <c r="A31" s="193">
         <v>17</v>
       </c>
-      <c r="B31" s="205"/>
-      <c r="C31" s="203"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="203"/>
-      <c r="L31" s="203"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
       <c r="M31" s="59"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
@@ -16321,20 +16321,20 @@
       <c r="Q31" s="60"/>
     </row>
     <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="197">
+      <c r="A32" s="193">
         <v>18</v>
       </c>
-      <c r="B32" s="205"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="203"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="203"/>
-      <c r="L32" s="203"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="195"/>
       <c r="M32" s="59"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
@@ -16342,20 +16342,20 @@
       <c r="Q32" s="60"/>
     </row>
     <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="197">
+      <c r="A33" s="193">
         <v>19</v>
       </c>
-      <c r="B33" s="205"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="195"/>
       <c r="M33" s="59"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
@@ -16363,20 +16363,20 @@
       <c r="Q33" s="60"/>
     </row>
     <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="197">
+      <c r="A34" s="193">
         <v>20</v>
       </c>
-      <c r="B34" s="205"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="203"/>
-      <c r="L34" s="203"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="195"/>
       <c r="M34" s="59"/>
       <c r="N34" s="60"/>
       <c r="O34" s="60"/>
@@ -16384,20 +16384,20 @@
       <c r="Q34" s="60"/>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="197">
+      <c r="A35" s="193">
         <v>21</v>
       </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="203"/>
-      <c r="L35" s="203"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
       <c r="M35" s="59"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
@@ -16405,20 +16405,20 @@
       <c r="Q35" s="60"/>
     </row>
     <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="197">
+      <c r="A36" s="193">
         <v>22</v>
       </c>
-      <c r="B36" s="205"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="203"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="203"/>
-      <c r="L36" s="203"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="195"/>
       <c r="M36" s="59"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
@@ -16426,20 +16426,20 @@
       <c r="Q36" s="60"/>
     </row>
     <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="197">
+      <c r="A37" s="193">
         <v>23</v>
       </c>
-      <c r="B37" s="205"/>
-      <c r="C37" s="203"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="203"/>
-      <c r="L37" s="203"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="195"/>
       <c r="M37" s="59"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
@@ -16447,20 +16447,20 @@
       <c r="Q37" s="60"/>
     </row>
     <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="197">
+      <c r="A38" s="193">
         <v>24</v>
       </c>
-      <c r="B38" s="205"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="203"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="203"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="203"/>
-      <c r="L38" s="203"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="195"/>
+      <c r="L38" s="195"/>
       <c r="M38" s="59"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
@@ -16468,20 +16468,20 @@
       <c r="Q38" s="60"/>
     </row>
     <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="197">
+      <c r="A39" s="193">
         <v>25</v>
       </c>
-      <c r="B39" s="205"/>
-      <c r="C39" s="203"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="203"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="203"/>
-      <c r="L39" s="203"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="195"/>
+      <c r="L39" s="195"/>
       <c r="M39" s="59"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
@@ -16489,20 +16489,20 @@
       <c r="Q39" s="60"/>
     </row>
     <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="197">
+      <c r="A40" s="193">
         <v>26</v>
       </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="203"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="203"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="203"/>
-      <c r="I40" s="203"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="203"/>
-      <c r="L40" s="203"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="195"/>
+      <c r="L40" s="195"/>
       <c r="M40" s="59"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
@@ -16510,20 +16510,20 @@
       <c r="Q40" s="60"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="197">
+      <c r="A41" s="193">
         <v>27</v>
       </c>
-      <c r="B41" s="205"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="203"/>
-      <c r="L41" s="203"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="195"/>
+      <c r="L41" s="195"/>
       <c r="M41" s="59"/>
       <c r="N41" s="60"/>
       <c r="O41" s="60"/>
@@ -16531,20 +16531,20 @@
       <c r="Q41" s="60"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="206">
+      <c r="A42" s="187">
         <v>28</v>
       </c>
-      <c r="B42" s="207"/>
-      <c r="C42" s="208"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="208"/>
-      <c r="G42" s="209"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208"/>
-      <c r="K42" s="208"/>
-      <c r="L42" s="208"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="189"/>
       <c r="M42" s="61"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -16564,19 +16564,19 @@
       <c r="N43" s="63"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="210"/>
-      <c r="B44" s="210"/>
-      <c r="C44" s="210"/>
-      <c r="D44" s="210"/>
-      <c r="E44" s="210"/>
-      <c r="F44" s="210"/>
-      <c r="G44" s="210"/>
-      <c r="H44" s="210"/>
-      <c r="I44" s="210"/>
-      <c r="J44" s="210"/>
-      <c r="K44" s="210"/>
-      <c r="L44" s="210"/>
-      <c r="M44" s="210"/>
+      <c r="A44" s="191"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="191"/>
+      <c r="K44" s="191"/>
+      <c r="L44" s="191"/>
+      <c r="M44" s="191"/>
       <c r="N44" s="63"/>
     </row>
     <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16603,94 +16603,202 @@
       <c r="A55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="139"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="74" t="s">
+      <c r="H55" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="211"/>
-      <c r="L55" s="211"/>
-      <c r="M55" s="211"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="192"/>
+      <c r="L55" s="192"/>
+      <c r="M55" s="192"/>
       <c r="N55" s="63"/>
     </row>
     <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="176" t="s">
+      <c r="B57" s="136"/>
+      <c r="C57" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="176"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="179"/>
-      <c r="G57" s="179"/>
-      <c r="H57" s="180"/>
-      <c r="I57" s="69" t="s">
+      <c r="D57" s="145"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="J57" s="70"/>
-      <c r="K57" s="176" t="s">
+      <c r="J57" s="136"/>
+      <c r="K57" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69" t="s">
+      <c r="L57" s="135"/>
+      <c r="M57" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="N57" s="212"/>
-      <c r="O57" s="212"/>
-      <c r="P57" s="212"/>
-      <c r="Q57" s="70"/>
+      <c r="N57" s="185"/>
+      <c r="O57" s="185"/>
+      <c r="P57" s="185"/>
+      <c r="Q57" s="136"/>
     </row>
     <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="177">
+      <c r="B58" s="136"/>
+      <c r="C58" s="146">
         <v>44883</v>
       </c>
-      <c r="D58" s="176"/>
-      <c r="E58" s="181"/>
-      <c r="F58" s="182"/>
-      <c r="G58" s="182"/>
-      <c r="H58" s="183"/>
-      <c r="I58" s="69" t="s">
+      <c r="D58" s="145"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="J58" s="212"/>
-      <c r="K58" s="177">
+      <c r="J58" s="185"/>
+      <c r="K58" s="146">
         <v>44883</v>
       </c>
-      <c r="L58" s="176"/>
-      <c r="M58" s="71">
+      <c r="L58" s="145"/>
+      <c r="M58" s="137">
         <v>44883</v>
       </c>
-      <c r="N58" s="213"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="213"/>
-      <c r="Q58" s="72"/>
+      <c r="N58" s="186"/>
+      <c r="O58" s="186"/>
+      <c r="P58" s="186"/>
+      <c r="Q58" s="138"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="146">
-    <mergeCell ref="M57:Q57"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K1:N5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:J5"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="G42:J42"/>
@@ -16707,125 +16815,17 @@
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="K41:L41"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K1:N5"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:J5"/>
+    <mergeCell ref="M57:Q57"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:Q42">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -16844,11 +16844,11 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:L364"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="10.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
@@ -16856,10 +16856,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="121"/>
+      <c r="A1" s="79"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
+      <c r="A2" s="80"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
